--- a/data/freezingexp.xlsx
+++ b/data/freezingexp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="2300" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="9980" yWindow="2540" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="453">
   <si>
     <t>OLD</t>
   </si>
@@ -1392,6 +1392,12 @@
   </si>
   <si>
     <t>tx</t>
+  </si>
+  <si>
+    <t>23/3/17</t>
+  </si>
+  <si>
+    <t>27/3/17</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2083,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139:XFD139"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7771,10 +7777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7783,7 +7789,7 @@
     <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7826,8 +7832,14 @@
       <c r="N1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -7856,8 +7868,14 @@
       <c r="M2" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7883,8 +7901,14 @@
       <c r="M3" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -7899,8 +7923,14 @@
       <c r="M4" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -7923,8 +7953,14 @@
       <c r="M5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>11</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7939,8 +7975,14 @@
       <c r="M6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="P6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -7952,8 +7994,14 @@
       <c r="M7" s="13" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -7973,8 +8021,14 @@
       <c r="M8" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -7998,8 +8052,14 @@
       <c r="M9" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -8021,7 +8081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -8046,7 +8106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -8071,7 +8131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -8093,7 +8153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -8106,7 +8166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -8132,8 +8192,14 @@
       <c r="M15" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -8143,8 +8209,14 @@
       <c r="E16" s="7"/>
       <c r="H16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -8154,8 +8226,14 @@
       <c r="E17" s="7"/>
       <c r="H17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -8170,8 +8248,14 @@
       <c r="M18" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -8195,8 +8279,14 @@
       <c r="M19" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -8214,8 +8304,14 @@
       </c>
       <c r="H20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -8228,8 +8324,14 @@
       </c>
       <c r="H21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>12</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -8242,8 +8344,14 @@
       </c>
       <c r="H22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -8280,8 +8388,14 @@
       <c r="M23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>159</v>
       </c>
@@ -8293,8 +8407,14 @@
       <c r="M24" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -8318,8 +8438,14 @@
       <c r="M25" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>95</v>
       </c>
@@ -8346,8 +8472,14 @@
       <c r="N26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -8357,8 +8489,11 @@
       <c r="E27" s="7"/>
       <c r="H27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -8370,8 +8505,14 @@
       <c r="M28" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>437</v>
+      </c>
+      <c r="P28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -8389,8 +8530,14 @@
       <c r="M29" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -8405,8 +8552,14 @@
       <c r="M30" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>11</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -8432,8 +8585,14 @@
       <c r="M31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>121</v>
       </c>
@@ -8448,8 +8607,14 @@
       <c r="N32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -8469,8 +8634,14 @@
       <c r="N33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
@@ -8488,8 +8659,11 @@
       <c r="M34" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -8499,8 +8673,14 @@
       <c r="E35" s="7"/>
       <c r="H35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -8530,7 +8710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>113</v>
       </c>
@@ -8548,8 +8728,11 @@
       <c r="N37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -8561,8 +8744,11 @@
       <c r="M38" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>110</v>
       </c>
@@ -8591,8 +8777,14 @@
       <c r="M39" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>9</v>
+      </c>
+      <c r="P39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>123</v>
       </c>
@@ -8618,8 +8810,14 @@
       <c r="M40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -8643,8 +8841,14 @@
       <c r="M41" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -8657,8 +8861,14 @@
         <v>9</v>
       </c>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>137</v>
       </c>
@@ -8685,8 +8895,11 @@
       <c r="N43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -8699,8 +8912,14 @@
       <c r="E44" s="7"/>
       <c r="H44" s="1"/>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -8713,8 +8932,14 @@
       <c r="E45" s="7"/>
       <c r="H45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>12</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -8730,8 +8955,14 @@
         <v>9</v>
       </c>
       <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>12</v>
+      </c>
+      <c r="P46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -8741,8 +8972,14 @@
       <c r="E47" s="7"/>
       <c r="H47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>150</v>
       </c>
@@ -8768,8 +9005,14 @@
       <c r="M48" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>4</v>
+      </c>
+      <c r="P48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
@@ -8801,8 +9044,14 @@
       <c r="M49" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>157</v>
       </c>
@@ -8831,8 +9080,14 @@
       <c r="M50" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -8842,8 +9097,14 @@
       <c r="E51" s="7"/>
       <c r="H51" s="1"/>
       <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>172</v>
       </c>
@@ -8875,8 +9136,14 @@
       <c r="M52" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
@@ -8906,7 +9173,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -8926,8 +9193,14 @@
       <c r="M54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -8942,7 +9215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -8962,8 +9235,11 @@
       <c r="N56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -8989,7 +9265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
@@ -9010,7 +9286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
@@ -9031,7 +9307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>15</v>
       </c>
@@ -9063,7 +9339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
@@ -9092,7 +9368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -9120,8 +9396,14 @@
       <c r="M62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>13</v>
+      </c>
+      <c r="P62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
@@ -9147,7 +9429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -9172,8 +9454,14 @@
       <c r="M64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>14</v>
+      </c>
+      <c r="P64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>27</v>
       </c>
@@ -9195,8 +9483,14 @@
       <c r="M65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>13</v>
+      </c>
+      <c r="P65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -9209,8 +9503,14 @@
       <c r="I66" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>13</v>
+      </c>
+      <c r="P66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -9232,8 +9532,14 @@
       <c r="M67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>14</v>
+      </c>
+      <c r="P67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>42</v>
       </c>
@@ -9250,8 +9556,11 @@
       <c r="N68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -9259,8 +9568,11 @@
         <v>5</v>
       </c>
       <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -9269,7 +9581,7 @@
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -9278,7 +9590,7 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -9287,7 +9599,7 @@
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -9295,8 +9607,14 @@
         <v>5</v>
       </c>
       <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <v>13</v>
+      </c>
+      <c r="P73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -9307,8 +9625,14 @@
         <v>9</v>
       </c>
       <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <v>14</v>
+      </c>
+      <c r="P74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
@@ -9340,7 +9664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -9370,7 +9694,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -9398,7 +9722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -9428,7 +9752,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -9453,7 +9777,7 @@
       </c>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -9904,7 +10228,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -9933,7 +10257,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -9959,7 +10283,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -9988,7 +10312,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -10009,7 +10333,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -10036,7 +10360,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>75</v>
       </c>
@@ -10062,7 +10386,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -10088,7 +10412,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -10114,7 +10438,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -10138,7 +10462,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>77</v>
       </c>
@@ -10164,7 +10488,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>173</v>
       </c>
@@ -10190,7 +10514,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>176</v>
       </c>
@@ -10219,7 +10543,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -10245,7 +10569,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>117</v>
       </c>
@@ -10272,7 +10596,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>118</v>
       </c>
@@ -10298,8 +10622,11 @@
       <c r="M111" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O111" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>151</v>
       </c>
@@ -10329,6 +10656,12 @@
         <v>376</v>
       </c>
       <c r="M112" s="1"/>
+      <c r="O112">
+        <v>4</v>
+      </c>
+      <c r="P112" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
@@ -10789,7 +11122,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>82</v>
       </c>
@@ -10818,7 +11151,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>196</v>
       </c>
@@ -10845,7 +11178,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>72</v>
       </c>
@@ -10869,7 +11202,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>197</v>
       </c>
@@ -10893,7 +11226,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>189</v>
       </c>
@@ -10927,7 +11260,7 @@
       </c>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>194</v>
       </c>
@@ -10959,8 +11292,14 @@
         <v>368</v>
       </c>
       <c r="M134" s="1"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <v>2</v>
+      </c>
+      <c r="P134" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>175</v>
       </c>
@@ -10993,8 +11332,14 @@
         <v>368</v>
       </c>
       <c r="M135" s="1"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <v>3</v>
+      </c>
+      <c r="P135" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>186</v>
       </c>
@@ -11021,8 +11366,14 @@
         <v>368</v>
       </c>
       <c r="M136" s="1"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>84</v>
       </c>
@@ -11054,8 +11405,14 @@
       <c r="M137" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>69</v>
       </c>
@@ -11089,7 +11446,7 @@
       </c>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>22</v>
       </c>
@@ -11114,8 +11471,14 @@
       <c r="L139" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O139">
+        <v>2</v>
+      </c>
+      <c r="P139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>50</v>
       </c>
@@ -11141,7 +11504,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>44</v>
       </c>
@@ -11158,7 +11521,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>54</v>
       </c>
@@ -11190,7 +11553,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>46</v>
       </c>
@@ -11225,7 +11588,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>47</v>
       </c>
@@ -11390,7 +11753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>

--- a/data/freezingexp.xlsx
+++ b/data/freezingexp.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/freezingexperiment/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="2540" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -26,13 +21,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FRZ!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TX!$A$1:$N$149</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1800,7 +1795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1814,24 +1809,24 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1839,7 +1834,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1847,7 +1842,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1855,32 +1850,32 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1888,7 +1883,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1896,7 +1891,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1904,7 +1899,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1912,7 +1907,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1920,7 +1915,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1928,12 +1923,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1941,7 +1936,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>410</v>
       </c>
@@ -1949,7 +1944,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>412</v>
       </c>
@@ -1957,7 +1952,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>414</v>
       </c>
@@ -1965,7 +1960,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>416</v>
       </c>
@@ -1973,7 +1968,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>418</v>
       </c>
@@ -1981,7 +1976,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>420</v>
       </c>
@@ -1989,7 +1984,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>422</v>
       </c>
@@ -1997,12 +1992,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2013,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +2021,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>427</v>
       </c>
@@ -2034,7 +2029,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>211</v>
       </c>
@@ -2042,7 +2037,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>430</v>
       </c>
@@ -2050,7 +2045,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>432</v>
       </c>
@@ -2058,12 +2053,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>435</v>
       </c>
@@ -2071,6 +2066,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2086,7 +2086,7 @@
       <selection pane="bottomLeft" activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -2095,7 +2095,7 @@
     <col min="14" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="L10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="L11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="L12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="L13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="L14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="4" t="s">
         <v>144</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="4" t="s">
         <v>171</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="4" t="s">
         <v>14</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="4" t="s">
         <v>23</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="4" t="s">
         <v>23</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="4" t="s">
         <v>41</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" s="4" t="s">
         <v>63</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>125</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>139</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>142</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>70</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>177</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>73</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>76</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>66</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="A104" s="4" t="s">
         <v>23</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105" s="4" t="s">
         <v>14</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" s="4" t="s">
         <v>43</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107" s="4" t="s">
         <v>43</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108" s="4" t="s">
         <v>43</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="A109" s="4" t="s">
         <v>142</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110" s="4" t="s">
         <v>142</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111" s="4" t="s">
         <v>57</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20">
       <c r="A112" s="4" t="s">
         <v>61</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="4" t="s">
         <v>61</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" s="9" t="s">
         <v>61</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" s="4" t="s">
         <v>61</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" s="4" t="s">
         <v>170</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" s="4" t="s">
         <v>78</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" s="4" t="s">
         <v>70</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" s="4" t="s">
         <v>67</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" s="4" t="s">
         <v>177</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" s="4" t="s">
         <v>177</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" s="4" t="s">
         <v>73</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" s="4" t="s">
         <v>73</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" s="4" t="s">
         <v>73</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" s="4" t="s">
         <v>195</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" s="4" t="s">
         <v>66</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" s="4" t="s">
         <v>195</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" s="4" t="s">
         <v>78</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" s="4" t="s">
         <v>70</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" s="4" t="s">
         <v>67</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" s="4" t="s">
         <v>73</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" s="4" t="s">
         <v>83</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" s="4" t="s">
         <v>14</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" s="4" t="s">
         <v>23</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136" s="4" t="s">
         <v>16</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" s="4" t="s">
         <v>14</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" s="4" t="s">
         <v>21</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" s="4" t="s">
         <v>39</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" s="4" t="s">
         <v>49</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" s="4" t="s">
         <v>43</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" s="4" t="s">
         <v>43</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" s="4" t="s">
         <v>45</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144" s="4" t="s">
         <v>43</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18">
       <c r="A145" s="4" t="s">
         <v>43</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -7772,6 +7772,11 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="34" fitToHeight="4" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7779,17 +7784,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7839,7 +7844,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -7875,7 +7880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7908,7 +7913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -7930,7 +7935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -7960,7 +7965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7982,7 +7987,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -8001,7 +8006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -8028,7 +8033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -8059,7 +8064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -8081,7 +8086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -8106,7 +8111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -8131,7 +8136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -8153,7 +8158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -8166,7 +8171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -8199,7 +8204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -8216,7 +8221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -8233,7 +8238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -8255,7 +8260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -8286,7 +8291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -8311,7 +8316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -8331,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -8351,7 +8356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -8395,7 +8400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>159</v>
       </c>
@@ -8414,7 +8419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -8445,7 +8450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
         <v>95</v>
       </c>
@@ -8479,7 +8484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -8493,7 +8498,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -8512,7 +8517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -8537,7 +8542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -8559,7 +8564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -8592,7 +8597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
         <v>121</v>
       </c>
@@ -8614,7 +8619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -8641,7 +8646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
@@ -8663,7 +8668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -8680,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -8710,7 +8715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
         <v>113</v>
       </c>
@@ -8732,7 +8737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -8748,7 +8753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
         <v>110</v>
       </c>
@@ -8784,7 +8789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="4" t="s">
         <v>123</v>
       </c>
@@ -8817,7 +8822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -8848,7 +8853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -8868,7 +8873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
         <v>137</v>
       </c>
@@ -8899,7 +8904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -8919,7 +8924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -8939,7 +8944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -8962,7 +8967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -8979,7 +8984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="4" t="s">
         <v>150</v>
       </c>
@@ -9012,7 +9017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
@@ -9051,7 +9056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="4" t="s">
         <v>157</v>
       </c>
@@ -9087,7 +9092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -9104,7 +9109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52" s="4" t="s">
         <v>172</v>
       </c>
@@ -9143,7 +9148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -9200,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -9215,7 +9220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -9239,7 +9244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -9265,7 +9270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
@@ -9286,7 +9291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
@@ -9307,7 +9312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="A60" s="4" t="s">
         <v>15</v>
       </c>
@@ -9339,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
@@ -9368,7 +9373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -9403,7 +9408,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
@@ -9429,7 +9434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -9461,7 +9466,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" s="4" t="s">
         <v>27</v>
       </c>
@@ -9490,7 +9495,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -9510,7 +9515,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -9539,7 +9544,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="A68" s="4" t="s">
         <v>42</v>
       </c>
@@ -9560,7 +9565,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -9572,7 +9577,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -9581,7 +9586,7 @@
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -9590,7 +9595,7 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -9599,7 +9604,7 @@
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -9614,7 +9619,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -9632,7 +9637,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
@@ -9664,7 +9669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -9694,7 +9699,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -9722,7 +9727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -9752,7 +9757,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -9777,7 +9782,7 @@
       </c>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -9802,7 +9807,7 @@
       </c>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -9835,7 +9840,7 @@
       </c>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>147</v>
       </c>
@@ -9860,7 +9865,7 @@
       </c>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -9884,7 +9889,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -9905,7 +9910,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>138</v>
       </c>
@@ -9929,7 +9934,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -9956,7 +9961,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -9980,7 +9985,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -10006,7 +10011,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -10032,7 +10037,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -10058,7 +10063,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -10092,7 +10097,7 @@
       </c>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -10120,7 +10125,7 @@
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -10151,7 +10156,7 @@
       </c>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -10175,7 +10180,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -10199,7 +10204,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -10228,7 +10233,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -10257,7 +10262,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -10283,7 +10288,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -10312,7 +10317,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -10333,7 +10338,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -10360,7 +10365,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
         <v>75</v>
       </c>
@@ -10386,7 +10391,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -10412,7 +10417,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -10438,7 +10443,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -10462,7 +10467,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
         <v>77</v>
       </c>
@@ -10488,7 +10493,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
         <v>173</v>
       </c>
@@ -10514,7 +10519,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
         <v>176</v>
       </c>
@@ -10543,7 +10548,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -10569,7 +10574,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16">
       <c r="A110" s="4" t="s">
         <v>117</v>
       </c>
@@ -10596,7 +10601,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16">
       <c r="A111" s="4" t="s">
         <v>118</v>
       </c>
@@ -10626,7 +10631,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16">
       <c r="A112" s="4" t="s">
         <v>151</v>
       </c>
@@ -10663,7 +10668,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14">
       <c r="A113" s="4" t="s">
         <v>154</v>
       </c>
@@ -10694,7 +10699,7 @@
       </c>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14">
       <c r="A114" s="4" t="s">
         <v>156</v>
       </c>
@@ -10722,7 +10727,7 @@
       </c>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14">
       <c r="A115" s="4" t="s">
         <v>153</v>
       </c>
@@ -10761,7 +10766,7 @@
       </c>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14">
       <c r="A116" s="4" t="s">
         <v>155</v>
       </c>
@@ -10790,7 +10795,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14">
       <c r="A117" s="4" t="s">
         <v>166</v>
       </c>
@@ -10826,7 +10831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14">
       <c r="A118" s="4" t="s">
         <v>168</v>
       </c>
@@ -10852,7 +10857,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14">
       <c r="A119" s="9" t="s">
         <v>65</v>
       </c>
@@ -10876,7 +10881,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14">
       <c r="A120" s="4" t="s">
         <v>62</v>
       </c>
@@ -10914,7 +10919,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14">
       <c r="A121" s="4" t="s">
         <v>169</v>
       </c>
@@ -10943,7 +10948,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14">
       <c r="A122" s="4" t="s">
         <v>193</v>
       </c>
@@ -10970,7 +10975,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14">
       <c r="A123" s="4" t="s">
         <v>190</v>
       </c>
@@ -10994,7 +10999,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14">
       <c r="A124" s="4" t="s">
         <v>68</v>
       </c>
@@ -11021,7 +11026,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -11048,7 +11053,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14">
       <c r="A126" s="4" t="s">
         <v>198</v>
       </c>
@@ -11072,7 +11077,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14">
       <c r="A127" s="4" t="s">
         <v>192</v>
       </c>
@@ -11096,7 +11101,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14">
       <c r="A128" s="4" t="s">
         <v>74</v>
       </c>
@@ -11122,7 +11127,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16">
       <c r="A129" s="4" t="s">
         <v>82</v>
       </c>
@@ -11151,7 +11156,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16">
       <c r="A130" s="4" t="s">
         <v>196</v>
       </c>
@@ -11178,7 +11183,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16">
       <c r="A131" s="4" t="s">
         <v>72</v>
       </c>
@@ -11202,7 +11207,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16">
       <c r="A132" s="4" t="s">
         <v>197</v>
       </c>
@@ -11226,7 +11231,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16">
       <c r="A133" s="4" t="s">
         <v>189</v>
       </c>
@@ -11260,7 +11265,7 @@
       </c>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16">
       <c r="A134" s="4" t="s">
         <v>194</v>
       </c>
@@ -11299,7 +11304,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16">
       <c r="A135" s="4" t="s">
         <v>175</v>
       </c>
@@ -11339,7 +11344,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16">
       <c r="A136" s="4" t="s">
         <v>186</v>
       </c>
@@ -11373,7 +11378,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16">
       <c r="A137" s="4" t="s">
         <v>84</v>
       </c>
@@ -11412,7 +11417,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16">
       <c r="A138" s="4" t="s">
         <v>69</v>
       </c>
@@ -11446,7 +11451,7 @@
       </c>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16">
       <c r="A139" s="4" t="s">
         <v>22</v>
       </c>
@@ -11478,7 +11483,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16">
       <c r="A140" s="4" t="s">
         <v>50</v>
       </c>
@@ -11504,7 +11509,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16">
       <c r="A141" s="4" t="s">
         <v>44</v>
       </c>
@@ -11521,7 +11526,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16">
       <c r="A142" s="4" t="s">
         <v>54</v>
       </c>
@@ -11553,7 +11558,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16">
       <c r="A143" s="4" t="s">
         <v>46</v>
       </c>
@@ -11588,7 +11593,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16">
       <c r="A144" s="4" t="s">
         <v>47</v>
       </c>
@@ -11614,7 +11619,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145" s="4" t="s">
         <v>48</v>
       </c>
@@ -11643,7 +11648,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" s="4" t="s">
         <v>174</v>
       </c>
@@ -11669,7 +11674,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" s="4" t="s">
         <v>182</v>
       </c>
@@ -11698,7 +11703,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148" s="4" t="s">
         <v>187</v>
       </c>
@@ -11721,7 +11726,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" s="4" t="s">
         <v>188</v>
       </c>
@@ -11746,6 +11751,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11753,17 +11763,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -11807,7 +11817,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -11830,7 +11840,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -11853,7 +11863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -11876,7 +11886,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -11899,7 +11909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -11922,7 +11932,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -11945,7 +11955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -11968,7 +11978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -11991,7 +12001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -12014,7 +12024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -12037,7 +12047,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -12060,7 +12070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -12083,7 +12093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -12106,7 +12116,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -12129,7 +12139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -12152,7 +12162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -12175,7 +12185,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -12210,7 +12220,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -12233,7 +12243,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -12256,7 +12266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -12279,7 +12289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12305,7 +12315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -12331,7 +12341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -12357,7 +12367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -12383,7 +12393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -12409,7 +12419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -12435,7 +12445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -12461,7 +12471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -12487,7 +12497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -12513,7 +12523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12539,7 +12549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -12565,7 +12575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -12591,7 +12601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -12617,7 +12627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -12643,7 +12653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -12681,7 +12691,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -12707,7 +12717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -12745,7 +12755,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -12771,7 +12781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -12797,7 +12807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -12823,7 +12833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -12849,7 +12859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -12887,7 +12897,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -12913,7 +12923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -12939,7 +12949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -12965,7 +12975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -12991,7 +13001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -13017,7 +13027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -13043,7 +13053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -13069,7 +13079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -13095,7 +13105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -13121,7 +13131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -13147,7 +13157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -13173,7 +13183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -13199,7 +13209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -13225,7 +13235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -13251,7 +13261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -13277,7 +13287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -13303,7 +13313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -13329,7 +13339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -13355,7 +13365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -13381,7 +13391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -13407,7 +13417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -13433,7 +13443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -13459,7 +13469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -13485,7 +13495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -13511,7 +13521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -13537,7 +13547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -13554,7 +13564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -13571,7 +13581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -13596,6 +13606,11 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13607,9 +13622,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -13629,7 +13644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -13649,7 +13664,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -13669,7 +13684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -13689,7 +13704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -13709,7 +13724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -13729,7 +13744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -13749,7 +13764,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -13772,6 +13787,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13786,7 +13806,7 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
@@ -13794,7 +13814,7 @@
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -13835,7 +13855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -13878,7 +13898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -13921,7 +13941,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -13964,7 +13984,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -14007,7 +14027,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -14050,7 +14070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -14093,7 +14113,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -14136,7 +14156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14179,7 +14199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -14222,7 +14242,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -14265,7 +14285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -14305,7 +14325,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -14345,7 +14365,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -14385,7 +14405,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -14425,7 +14445,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -14465,7 +14485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -14505,7 +14525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -14545,7 +14565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -14585,7 +14605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -14625,7 +14645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -14665,7 +14685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -14698,7 +14718,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -14731,7 +14751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -14764,7 +14784,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -14797,7 +14817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -14830,7 +14850,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -14863,7 +14883,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -14896,7 +14916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -14929,7 +14949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -14962,7 +14982,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -14995,7 +15015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -15028,7 +15048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -15061,7 +15081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -15094,7 +15114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -15127,7 +15147,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -15160,7 +15180,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -15193,7 +15213,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -15226,7 +15246,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -15259,7 +15279,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -15292,7 +15312,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -15325,7 +15345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -15358,7 +15378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -15391,7 +15411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -15424,7 +15444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -15457,7 +15477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -15487,7 +15507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -15517,7 +15537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -15547,7 +15567,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -15577,7 +15597,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -15607,7 +15627,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>199</v>
       </c>
@@ -15637,7 +15657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -15667,7 +15687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -15697,7 +15717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -15727,7 +15747,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -15757,7 +15777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -15787,7 +15807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -15817,62 +15837,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="16" hidden="1">
       <c r="A58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="16" hidden="1">
       <c r="A59" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="16" hidden="1">
       <c r="A60" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="16" hidden="1">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="16" hidden="1">
       <c r="A62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="16" hidden="1">
       <c r="A63" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="16" hidden="1">
       <c r="A64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="16" hidden="1">
       <c r="A65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="16" hidden="1">
       <c r="A66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="16" hidden="1">
       <c r="A67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="16" hidden="1">
       <c r="A68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="16" hidden="1">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -15882,6 +15902,11 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15896,13 +15921,13 @@
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -15931,7 +15956,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -15960,7 +15985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -15989,7 +16014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -16012,7 +16037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -16041,7 +16066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -16052,7 +16077,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>293</v>
       </c>
@@ -16081,7 +16106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -16110,7 +16135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -16133,7 +16158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -16162,7 +16187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -16191,7 +16216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -16214,7 +16239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -16243,7 +16268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -16272,7 +16297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -16295,7 +16320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -16318,7 +16343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -16347,7 +16372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -16370,7 +16395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -16393,7 +16418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -16404,7 +16429,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>312</v>
       </c>
@@ -16424,7 +16449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -16447,7 +16472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>312</v>
       </c>
@@ -16467,7 +16492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -16487,7 +16512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -16513,7 +16538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -16539,7 +16564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -16568,7 +16593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -16582,7 +16607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -16605,7 +16630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -16619,7 +16644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -16630,7 +16655,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -16656,7 +16681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>313</v>
       </c>
@@ -16682,7 +16707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -16696,7 +16721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>328</v>
       </c>
@@ -16722,7 +16747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -16748,7 +16773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>328</v>
       </c>
@@ -16771,7 +16796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -16782,7 +16807,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -16811,7 +16836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -16840,7 +16865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>328</v>
       </c>
@@ -16851,7 +16876,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -16862,7 +16887,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -16885,7 +16910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -16914,7 +16939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -16943,7 +16968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -16966,7 +16991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -16989,7 +17014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -17003,7 +17028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -17037,6 +17062,11 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17048,9 +17078,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -17064,7 +17094,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -17078,7 +17108,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -17092,7 +17122,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -17106,7 +17136,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -17120,7 +17150,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -17134,7 +17164,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -17148,7 +17178,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -17162,7 +17192,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -17178,20 +17208,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -17235,7 +17270,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
@@ -17279,7 +17314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>42777</v>
       </c>
@@ -17323,7 +17358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>42780</v>
       </c>
@@ -17349,7 +17384,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>42793</v>
       </c>
@@ -17370,10 +17405,25 @@
       </c>
       <c r="G5">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <f>AVERAGE(B2:B5)</f>
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(E2:E5)</f>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/freezingexp.xlsx
+++ b/data/freezingexp.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="463">
   <si>
     <t>OLD</t>
   </si>
@@ -1413,6 +1413,21 @@
   </si>
   <si>
     <t>post.scale</t>
+  </si>
+  <si>
+    <t>BBCH 04.4</t>
+  </si>
+  <si>
+    <t>BBCH 07.4</t>
+  </si>
+  <si>
+    <t>BBCH 10.7</t>
+  </si>
+  <si>
+    <t>04.APR</t>
+  </si>
+  <si>
+    <t>05.APR</t>
   </si>
 </sst>
 </file>
@@ -2095,23 +2110,26 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:AA149"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="V27" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="10.83203125" customWidth="1"/>
+    <col min="3" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="10.83203125" customWidth="1"/>
+    <col min="14" max="22" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2176,10 +2194,25 @@
         <v>453</v>
       </c>
       <c r="V1" t="s">
+        <v>458</v>
+      </c>
+      <c r="W1" t="s">
+        <v>459</v>
+      </c>
+      <c r="X1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Z1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2226,8 +2259,11 @@
       <c r="U2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2260,8 +2296,11 @@
       <c r="U3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2302,8 +2341,11 @@
       <c r="U4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2339,8 +2381,14 @@
       <c r="U5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V5">
+        <v>14</v>
+      </c>
+      <c r="W5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2418,11 @@
       <c r="U6" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2409,8 +2460,11 @@
       <c r="U7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2452,8 +2506,11 @@
       <c r="U8">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2484,7 +2541,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2503,8 +2560,11 @@
       <c r="I10" s="7"/>
       <c r="L10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2524,7 +2584,7 @@
       <c r="L11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2552,7 +2612,7 @@
       <c r="L12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2575,7 +2635,7 @@
       <c r="L13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2598,7 +2658,7 @@
       <c r="L14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2653,8 +2713,11 @@
       <c r="U15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2685,7 +2748,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2727,8 +2790,11 @@
       <c r="U17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -2774,7 +2840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2802,8 +2868,11 @@
       <c r="U19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2833,8 +2902,11 @@
       <c r="U20">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2874,7 +2946,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2911,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -2958,8 +3030,11 @@
       <c r="U23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -2993,7 +3068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -3029,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -3066,7 +3141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3089,7 +3164,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3137,7 +3212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -3174,7 +3249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3205,7 +3280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3253,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -3298,7 +3373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -3341,7 +3416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3372,8 +3447,14 @@
       <c r="U34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V34">
+        <v>9</v>
+      </c>
+      <c r="W34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -3415,8 +3496,11 @@
       <c r="U35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3439,7 +3523,7 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -3467,8 +3551,11 @@
       <c r="U37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3499,8 +3586,11 @@
       <c r="U38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3528,8 +3618,11 @@
       <c r="U39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
@@ -3574,7 +3667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3625,7 +3718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>144</v>
       </c>
@@ -3673,7 +3766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -3698,8 +3791,11 @@
       <c r="U43">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>171</v>
       </c>
@@ -3750,7 +3846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3794,8 +3890,11 @@
       <c r="U45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3831,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -3873,7 +3972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
@@ -3923,7 +4022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
@@ -3962,7 +4061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4001,7 +4100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
@@ -4051,7 +4150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>23</v>
       </c>
@@ -4098,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
@@ -4142,7 +4241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -4167,8 +4266,14 @@
       <c r="M54" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V54">
+        <v>9</v>
+      </c>
+      <c r="W54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>41</v>
       </c>
@@ -4204,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -4224,8 +4329,11 @@
         <v>8.4</v>
       </c>
       <c r="M56" s="6"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -4252,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -4272,8 +4380,11 @@
         <v>9.6</v>
       </c>
       <c r="M58" s="6"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -4294,7 +4405,7 @@
       </c>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -4315,7 +4426,7 @@
       </c>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4338,8 +4449,11 @@
         <v>9</v>
       </c>
       <c r="M61" s="6"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
@@ -4386,7 +4500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4431,7 +4545,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4473,7 +4587,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -4510,7 +4624,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -4552,7 +4666,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -4592,7 +4706,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -4629,7 +4743,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4666,7 +4780,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4706,7 +4820,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -4748,7 +4862,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4785,7 +4899,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -4822,7 +4936,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -4853,7 +4967,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -4893,7 +5007,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -4938,7 +5052,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -4975,7 +5089,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -5011,7 +5125,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -5044,7 +5158,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -5080,7 +5194,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -5119,7 +5233,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -5158,7 +5272,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -5196,7 +5310,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>162</v>
       </c>
@@ -5234,7 +5348,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -5272,7 +5386,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>61</v>
       </c>
@@ -5318,7 +5432,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -5361,7 +5475,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -5404,7 +5518,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -5440,7 +5554,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -5479,7 +5593,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -5520,7 +5634,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -5561,7 +5675,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -5602,7 +5716,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -5646,7 +5760,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5679,7 +5793,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -5718,7 +5832,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -5759,7 +5873,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -5800,7 +5914,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -5841,7 +5955,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -5877,7 +5991,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>76</v>
       </c>
@@ -5918,7 +6032,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -5956,7 +6070,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -5997,7 +6111,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -6035,7 +6149,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>23</v>
       </c>
@@ -6074,7 +6188,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
@@ -6113,7 +6227,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>43</v>
       </c>
@@ -6156,7 +6270,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>43</v>
       </c>
@@ -6199,7 +6313,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>43</v>
       </c>
@@ -6239,7 +6353,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>142</v>
       </c>
@@ -6290,7 +6404,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>142</v>
       </c>
@@ -6331,7 +6445,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>57</v>
       </c>
@@ -6379,7 +6493,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>61</v>
       </c>
@@ -6424,7 +6538,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>61</v>
       </c>
@@ -6462,7 +6576,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>61</v>
       </c>
@@ -6501,7 +6615,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>61</v>
       </c>
@@ -6554,7 +6668,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>170</v>
       </c>
@@ -6595,7 +6709,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>78</v>
       </c>
@@ -6634,7 +6748,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>70</v>
       </c>
@@ -6670,7 +6784,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>67</v>
       </c>
@@ -6712,7 +6826,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>177</v>
       </c>
@@ -6751,7 +6865,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>177</v>
       </c>
@@ -6787,7 +6901,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>73</v>
       </c>
@@ -6823,7 +6937,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>73</v>
       </c>
@@ -6864,7 +6978,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>73</v>
       </c>
@@ -6908,7 +7022,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>195</v>
       </c>
@@ -6947,7 +7061,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>66</v>
       </c>
@@ -6986,7 +7100,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>195</v>
       </c>
@@ -7022,7 +7136,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>78</v>
       </c>
@@ -7068,7 +7182,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>70</v>
       </c>
@@ -7113,7 +7227,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>67</v>
       </c>
@@ -7159,7 +7273,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>73</v>
       </c>
@@ -7199,7 +7313,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>83</v>
       </c>
@@ -7247,7 +7361,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>66</v>
       </c>
@@ -7296,7 +7410,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>14</v>
       </c>
@@ -7343,7 +7457,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>23</v>
       </c>
@@ -7387,7 +7501,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>14</v>
       </c>
@@ -7437,7 +7551,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>21</v>
       </c>
@@ -7478,7 +7592,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>39</v>
       </c>
@@ -7519,7 +7633,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>49</v>
       </c>
@@ -7560,7 +7674,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>43</v>
       </c>
@@ -7592,7 +7706,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>43</v>
       </c>
@@ -7639,7 +7753,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>45</v>
       </c>
@@ -7689,7 +7803,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>43</v>
       </c>
@@ -7730,7 +7844,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>43</v>
       </c>
@@ -7774,7 +7888,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -7812,7 +7926,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -7853,7 +7967,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -7888,7 +8002,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -7928,7 +8042,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="34" fitToHeight="4" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="29" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -11937,10 +12051,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13837,6 +13951,214 @@
         <v>91</v>
       </c>
       <c r="H71" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
+        <v>461</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" t="s">
+        <v>461</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>461</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
+        <v>461</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" t="s">
+        <v>461</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F76">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
+        <v>461</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s">
+        <v>461</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>461</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="8">
         <v>2</v>
       </c>
     </row>

--- a/data/freezingexp.xlsx
+++ b/data/freezingexp.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/freezingexperiment/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="460" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="200" windowWidth="25360" windowHeight="14100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -28,11 +23,11 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1831,7 +1826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1845,24 +1840,24 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1870,7 +1865,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1878,7 +1873,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1886,32 +1881,32 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1919,7 +1914,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1927,7 +1922,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1935,7 +1930,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1943,7 +1938,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1951,7 +1946,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1959,12 +1954,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1972,7 +1967,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>410</v>
       </c>
@@ -1980,7 +1975,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>412</v>
       </c>
@@ -1988,7 +1983,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>414</v>
       </c>
@@ -1996,7 +1991,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>416</v>
       </c>
@@ -2004,7 +1999,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>418</v>
       </c>
@@ -2012,7 +2007,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>420</v>
       </c>
@@ -2020,7 +2015,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>422</v>
       </c>
@@ -2028,12 +2023,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2036,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2044,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2052,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>427</v>
       </c>
@@ -2065,7 +2060,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>211</v>
       </c>
@@ -2073,7 +2068,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>430</v>
       </c>
@@ -2081,7 +2076,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>432</v>
       </c>
@@ -2089,12 +2084,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>435</v>
       </c>
@@ -2102,6 +2097,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2112,24 +2112,26 @@
   </sheetPr>
   <dimension ref="A1:AA149"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="V36" sqref="V36"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
-    <col min="14" max="22" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="12" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="21" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2300,7 +2302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2345,7 +2347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2388,7 +2390,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2464,7 +2466,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2584,7 +2586,7 @@
       <c r="L11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2612,7 +2614,7 @@
       <c r="L12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2635,7 +2637,7 @@
       <c r="L13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2658,7 +2660,7 @@
       <c r="L14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2717,7 +2719,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2794,7 +2796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +2842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2906,7 +2908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2946,7 +2948,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2983,7 +2985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -3141,7 +3143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3164,7 +3166,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3212,7 +3214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -3373,7 +3375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -3416,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3454,7 +3456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -3500,7 +3502,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3523,7 +3525,7 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -3555,7 +3557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
@@ -3667,7 +3669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" s="4" t="s">
         <v>144</v>
       </c>
@@ -3766,7 +3768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -3795,7 +3797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44" s="4" t="s">
         <v>171</v>
       </c>
@@ -3846,7 +3848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3894,7 +3896,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3930,7 +3932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -3972,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
@@ -4022,7 +4024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4100,7 +4102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52" s="4" t="s">
         <v>23</v>
       </c>
@@ -4197,7 +4199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
@@ -4241,7 +4243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -4273,7 +4275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55" s="4" t="s">
         <v>41</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -4333,7 +4335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -4360,7 +4362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -4405,7 +4407,7 @@
       </c>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -4426,7 +4428,7 @@
       </c>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4453,7 +4455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="16" hidden="1">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
@@ -4500,7 +4502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="16" hidden="1">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="16" hidden="1">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4587,7 +4589,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="16" hidden="1">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -4624,7 +4626,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="16" hidden="1">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="16" hidden="1">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="16" hidden="1">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -4743,7 +4745,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="16" hidden="1">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4780,7 +4782,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="16" hidden="1">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="16" hidden="1">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="16" hidden="1">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="16" hidden="1">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -4936,7 +4938,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="16" hidden="1">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -4967,7 +4969,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="16" hidden="1">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="16" hidden="1">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="16" hidden="1">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="16" hidden="1">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="16" hidden="1">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="16" hidden="1">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" ht="16" hidden="1">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -5233,7 +5235,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" ht="16" hidden="1">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" ht="16" hidden="1">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" ht="16" hidden="1">
       <c r="A84" t="s">
         <v>162</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" ht="16" hidden="1">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -5386,7 +5388,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" ht="16" hidden="1">
       <c r="A86" t="s">
         <v>61</v>
       </c>
@@ -5432,7 +5434,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" ht="16" hidden="1">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -5475,7 +5477,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" ht="16" hidden="1">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -5518,7 +5520,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" ht="16" hidden="1">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -5554,7 +5556,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" ht="16" hidden="1">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -5593,7 +5595,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" ht="16" hidden="1">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -5634,7 +5636,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" ht="16" hidden="1">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -5675,7 +5677,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" ht="16" hidden="1">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -5716,7 +5718,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" ht="16" hidden="1">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -5760,7 +5762,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" ht="16" hidden="1">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="16" hidden="1">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -5832,7 +5834,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16" hidden="1">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -5873,7 +5875,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" hidden="1">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" hidden="1">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="16" hidden="1">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -5991,7 +5993,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16" hidden="1">
       <c r="A101" t="s">
         <v>76</v>
       </c>
@@ -6032,7 +6034,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" hidden="1">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -6070,7 +6072,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16" hidden="1">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -6111,7 +6113,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="16" hidden="1">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -6149,7 +6151,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16" hidden="1">
       <c r="A105" s="4" t="s">
         <v>23</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="16" hidden="1">
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" hidden="1">
       <c r="A107" s="4" t="s">
         <v>43</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="16" hidden="1">
       <c r="A108" s="4" t="s">
         <v>43</v>
       </c>
@@ -6313,7 +6315,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16" hidden="1">
       <c r="A109" s="4" t="s">
         <v>43</v>
       </c>
@@ -6353,7 +6355,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="16" hidden="1">
       <c r="A110" s="4" t="s">
         <v>142</v>
       </c>
@@ -6404,7 +6406,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16" hidden="1">
       <c r="A111" s="4" t="s">
         <v>142</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="16" hidden="1">
       <c r="A112" s="4" t="s">
         <v>57</v>
       </c>
@@ -6493,7 +6495,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="16" hidden="1">
       <c r="A113" s="4" t="s">
         <v>61</v>
       </c>
@@ -6538,7 +6540,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" ht="16" hidden="1">
       <c r="A114" s="4" t="s">
         <v>61</v>
       </c>
@@ -6576,7 +6578,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="16" hidden="1">
       <c r="A115" s="9" t="s">
         <v>61</v>
       </c>
@@ -6615,7 +6617,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="16" hidden="1">
       <c r="A116" s="4" t="s">
         <v>61</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" ht="16" hidden="1">
       <c r="A117" s="4" t="s">
         <v>170</v>
       </c>
@@ -6709,7 +6711,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" ht="16" hidden="1">
       <c r="A118" s="4" t="s">
         <v>78</v>
       </c>
@@ -6748,7 +6750,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" ht="16" hidden="1">
       <c r="A119" s="4" t="s">
         <v>70</v>
       </c>
@@ -6784,7 +6786,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" ht="16" hidden="1">
       <c r="A120" s="4" t="s">
         <v>67</v>
       </c>
@@ -6826,7 +6828,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" ht="16" hidden="1">
       <c r="A121" s="4" t="s">
         <v>177</v>
       </c>
@@ -6865,7 +6867,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" ht="16" hidden="1">
       <c r="A122" s="4" t="s">
         <v>177</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" ht="16" hidden="1">
       <c r="A123" s="4" t="s">
         <v>73</v>
       </c>
@@ -6937,7 +6939,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="16" hidden="1">
       <c r="A124" s="4" t="s">
         <v>73</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" ht="16" hidden="1">
       <c r="A125" s="4" t="s">
         <v>73</v>
       </c>
@@ -7022,7 +7024,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" ht="16" hidden="1">
       <c r="A126" s="4" t="s">
         <v>195</v>
       </c>
@@ -7061,7 +7063,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="16" hidden="1">
       <c r="A127" s="4" t="s">
         <v>66</v>
       </c>
@@ -7100,7 +7102,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="16" hidden="1">
       <c r="A128" s="4" t="s">
         <v>195</v>
       </c>
@@ -7136,7 +7138,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="16" hidden="1">
       <c r="A129" s="4" t="s">
         <v>78</v>
       </c>
@@ -7182,7 +7184,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="16" hidden="1">
       <c r="A130" s="4" t="s">
         <v>70</v>
       </c>
@@ -7227,7 +7229,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="16" hidden="1">
       <c r="A131" s="4" t="s">
         <v>67</v>
       </c>
@@ -7273,7 +7275,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="16" hidden="1">
       <c r="A132" s="4" t="s">
         <v>73</v>
       </c>
@@ -7313,7 +7315,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="16" hidden="1">
       <c r="A133" s="4" t="s">
         <v>83</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="16" hidden="1">
       <c r="A134" s="4" t="s">
         <v>66</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="16" hidden="1">
       <c r="A135" s="4" t="s">
         <v>14</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="16" hidden="1">
       <c r="A136" s="4" t="s">
         <v>23</v>
       </c>
@@ -7501,7 +7503,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="16" hidden="1">
       <c r="A137" s="4" t="s">
         <v>14</v>
       </c>
@@ -7551,7 +7553,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="16" hidden="1">
       <c r="A138" s="4" t="s">
         <v>21</v>
       </c>
@@ -7592,7 +7594,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="16" hidden="1">
       <c r="A139" s="4" t="s">
         <v>39</v>
       </c>
@@ -7633,7 +7635,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" ht="16" hidden="1">
       <c r="A140" s="4" t="s">
         <v>49</v>
       </c>
@@ -7674,7 +7676,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" ht="16" hidden="1">
       <c r="A141" s="4" t="s">
         <v>43</v>
       </c>
@@ -7706,7 +7708,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" ht="16" hidden="1">
       <c r="A142" s="4" t="s">
         <v>43</v>
       </c>
@@ -7753,7 +7755,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" ht="16" hidden="1">
       <c r="A143" s="4" t="s">
         <v>45</v>
       </c>
@@ -7803,7 +7805,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="16" hidden="1">
       <c r="A144" s="4" t="s">
         <v>43</v>
       </c>
@@ -7844,7 +7846,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" ht="16" hidden="1">
       <c r="A145" s="4" t="s">
         <v>43</v>
       </c>
@@ -7888,7 +7890,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" ht="16" hidden="1">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" ht="16" hidden="1">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -7967,7 +7969,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" ht="16" hidden="1">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -8002,7 +8004,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" ht="16" hidden="1">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -8041,8 +8043,13 @@
   <autoFilter ref="A1:N62"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="29" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup scale="72" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="39"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8057,7 +8064,7 @@
       <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.83203125" hidden="1" customWidth="1"/>
@@ -8065,7 +8072,7 @@
     <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8118,7 +8125,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8157,7 +8164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8190,7 +8197,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -8215,7 +8222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -8248,7 +8255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8273,7 +8280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -8295,7 +8302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -8322,7 +8329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -8353,7 +8360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -8381,7 +8388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -8406,7 +8413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -8431,7 +8438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -8453,7 +8460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -8466,7 +8473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -8493,7 +8500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -8510,7 +8517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -8527,7 +8534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -8549,7 +8556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -8580,7 +8587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -8605,7 +8612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -8625,7 +8632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -8645,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -8689,7 +8696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>159</v>
       </c>
@@ -8708,7 +8715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -8739,7 +8746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
         <v>95</v>
       </c>
@@ -8773,7 +8780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -8790,7 +8797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -8806,7 +8813,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -8831,7 +8838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -8853,7 +8860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -8886,7 +8893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
         <v>121</v>
       </c>
@@ -8908,7 +8915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -8935,7 +8942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
@@ -8960,7 +8967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -8974,7 +8981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -9010,7 +9017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
         <v>113</v>
       </c>
@@ -9029,7 +9036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -9045,7 +9052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
         <v>110</v>
       </c>
@@ -9078,7 +9085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="4" t="s">
         <v>123</v>
       </c>
@@ -9111,7 +9118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -9142,7 +9149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -9162,7 +9169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
         <v>137</v>
       </c>
@@ -9196,7 +9203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -9213,7 +9220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -9233,7 +9240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -9256,7 +9263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -9273,7 +9280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="4" t="s">
         <v>150</v>
       </c>
@@ -9306,7 +9313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
@@ -9345,7 +9352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="4" t="s">
         <v>157</v>
       </c>
@@ -9381,7 +9388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -9398,7 +9405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52" s="4" t="s">
         <v>172</v>
       </c>
@@ -9437,7 +9444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
@@ -9473,7 +9480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -9494,7 +9501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -9515,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -9536,7 +9543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -9565,7 +9572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
@@ -9586,7 +9593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
@@ -9607,7 +9614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="A60" s="4" t="s">
         <v>15</v>
       </c>
@@ -9639,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
@@ -9668,7 +9675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -9697,7 +9704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
@@ -9729,7 +9736,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -9755,7 +9762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" s="4" t="s">
         <v>27</v>
       </c>
@@ -9784,7 +9791,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -9804,7 +9811,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -9833,7 +9840,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="A68" s="4" t="s">
         <v>42</v>
       </c>
@@ -9857,7 +9864,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -9869,7 +9876,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -9881,7 +9888,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -9890,7 +9897,7 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -9899,7 +9906,7 @@
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -9908,7 +9915,7 @@
       </c>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -9926,7 +9933,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
@@ -9964,7 +9971,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -9994,7 +10001,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -10022,7 +10029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -10052,7 +10059,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -10077,7 +10084,7 @@
       </c>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -10102,7 +10109,7 @@
       </c>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -10135,7 +10142,7 @@
       </c>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>147</v>
       </c>
@@ -10160,7 +10167,7 @@
       </c>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -10184,7 +10191,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -10205,7 +10212,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>138</v>
       </c>
@@ -10229,7 +10236,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -10256,7 +10263,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -10280,7 +10287,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -10306,7 +10313,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -10332,7 +10339,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -10358,7 +10365,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -10392,7 +10399,7 @@
       </c>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -10420,7 +10427,7 @@
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -10451,7 +10458,7 @@
       </c>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -10475,7 +10482,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -10499,7 +10506,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -10528,7 +10535,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -10557,7 +10564,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -10583,7 +10590,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -10612,7 +10619,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -10633,7 +10640,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -10660,7 +10667,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>75</v>
       </c>
@@ -10686,7 +10693,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -10712,7 +10719,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -10738,7 +10745,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -10762,7 +10769,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>77</v>
       </c>
@@ -10788,7 +10795,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>173</v>
       </c>
@@ -10814,7 +10821,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>176</v>
       </c>
@@ -10843,7 +10850,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -10869,7 +10876,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="A110" s="4" t="s">
         <v>117</v>
       </c>
@@ -10896,7 +10903,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="A111" s="4" t="s">
         <v>118</v>
       </c>
@@ -10923,7 +10930,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15">
       <c r="A112" s="4" t="s">
         <v>151</v>
       </c>
@@ -10957,7 +10964,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16">
       <c r="A113" s="4" t="s">
         <v>154</v>
       </c>
@@ -10994,7 +11001,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16">
       <c r="A114" s="4" t="s">
         <v>156</v>
       </c>
@@ -11022,7 +11029,7 @@
       </c>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16">
       <c r="A115" s="4" t="s">
         <v>153</v>
       </c>
@@ -11061,7 +11068,7 @@
       </c>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16">
       <c r="A116" s="4" t="s">
         <v>155</v>
       </c>
@@ -11090,7 +11097,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16">
       <c r="A117" s="4" t="s">
         <v>166</v>
       </c>
@@ -11126,7 +11133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16">
       <c r="A118" s="4" t="s">
         <v>168</v>
       </c>
@@ -11152,7 +11159,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16">
       <c r="A119" s="9" t="s">
         <v>65</v>
       </c>
@@ -11176,7 +11183,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16">
       <c r="A120" s="4" t="s">
         <v>62</v>
       </c>
@@ -11214,7 +11221,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16">
       <c r="A121" s="4" t="s">
         <v>169</v>
       </c>
@@ -11243,7 +11250,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16">
       <c r="A122" s="4" t="s">
         <v>193</v>
       </c>
@@ -11270,7 +11277,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16">
       <c r="A123" s="4" t="s">
         <v>190</v>
       </c>
@@ -11294,7 +11301,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16">
       <c r="A124" s="4" t="s">
         <v>68</v>
       </c>
@@ -11321,7 +11328,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -11348,7 +11355,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16">
       <c r="A126" s="4" t="s">
         <v>198</v>
       </c>
@@ -11372,7 +11379,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16">
       <c r="A127" s="4" t="s">
         <v>192</v>
       </c>
@@ -11396,7 +11403,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16">
       <c r="A128" s="4" t="s">
         <v>74</v>
       </c>
@@ -11422,7 +11429,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16">
       <c r="A129" s="4" t="s">
         <v>82</v>
       </c>
@@ -11451,7 +11458,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16">
       <c r="A130" s="4" t="s">
         <v>196</v>
       </c>
@@ -11478,7 +11485,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16">
       <c r="A131" s="4" t="s">
         <v>72</v>
       </c>
@@ -11502,7 +11509,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16">
       <c r="A132" s="4" t="s">
         <v>197</v>
       </c>
@@ -11526,7 +11533,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16">
       <c r="A133" s="4" t="s">
         <v>189</v>
       </c>
@@ -11560,7 +11567,7 @@
       </c>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16">
       <c r="A134" s="4" t="s">
         <v>194</v>
       </c>
@@ -11593,7 +11600,7 @@
       </c>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16">
       <c r="A135" s="4" t="s">
         <v>175</v>
       </c>
@@ -11633,7 +11640,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16">
       <c r="A136" s="4" t="s">
         <v>186</v>
       </c>
@@ -11667,7 +11674,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16">
       <c r="A137" s="4" t="s">
         <v>84</v>
       </c>
@@ -11706,7 +11713,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16">
       <c r="A138" s="4" t="s">
         <v>69</v>
       </c>
@@ -11746,7 +11753,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16">
       <c r="A139" s="4" t="s">
         <v>22</v>
       </c>
@@ -11772,7 +11779,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16">
       <c r="A140" s="4" t="s">
         <v>50</v>
       </c>
@@ -11804,7 +11811,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16">
       <c r="A141" s="4" t="s">
         <v>44</v>
       </c>
@@ -11821,7 +11828,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16">
       <c r="A142" s="4" t="s">
         <v>54</v>
       </c>
@@ -11853,7 +11860,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16">
       <c r="A143" s="4" t="s">
         <v>46</v>
       </c>
@@ -11888,7 +11895,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16">
       <c r="A144" s="4" t="s">
         <v>47</v>
       </c>
@@ -11914,7 +11921,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145" s="4" t="s">
         <v>48</v>
       </c>
@@ -11943,7 +11950,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" s="4" t="s">
         <v>174</v>
       </c>
@@ -11969,7 +11976,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" s="4" t="s">
         <v>182</v>
       </c>
@@ -11998,7 +12005,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148" s="4" t="s">
         <v>187</v>
       </c>
@@ -12021,7 +12028,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" s="4" t="s">
         <v>188</v>
       </c>
@@ -12046,6 +12053,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12053,17 +12065,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -12110,7 +12122,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -12133,7 +12145,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -12156,7 +12168,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -12179,7 +12191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -12202,7 +12214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -12225,7 +12237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -12248,7 +12260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -12271,7 +12283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -12294,7 +12306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -12317,7 +12329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -12340,7 +12352,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -12363,7 +12375,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -12386,7 +12398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -12409,7 +12421,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -12432,7 +12444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -12455,7 +12467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -12478,7 +12490,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -12522,7 +12534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -12545,7 +12557,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -12568,7 +12580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -12591,7 +12603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12617,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -12643,7 +12655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -12669,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -12695,7 +12707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -12721,7 +12733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -12747,7 +12759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -12773,7 +12785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -12799,7 +12811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -12825,7 +12837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12851,7 +12863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -12877,7 +12889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -12903,7 +12915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -12929,7 +12941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -12955,7 +12967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -13002,7 +13014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -13028,7 +13040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -13075,7 +13087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -13101,7 +13113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -13127,7 +13139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -13153,7 +13165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -13179,7 +13191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -13226,7 +13238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -13252,7 +13264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -13278,7 +13290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -13304,7 +13316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -13330,7 +13342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -13356,7 +13368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -13382,7 +13394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -13408,7 +13420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -13434,7 +13446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -13460,7 +13472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -13486,7 +13498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -13512,7 +13524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -13538,7 +13550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -13564,7 +13576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -13590,7 +13602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -13616,7 +13628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -13642,7 +13654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -13668,7 +13680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -13694,7 +13706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -13720,7 +13732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -13746,7 +13758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -13772,7 +13784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -13798,7 +13810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -13824,7 +13836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -13850,7 +13862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -13876,7 +13888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -13902,7 +13914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -13928,7 +13940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -13954,7 +13966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -13980,7 +13992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -14006,7 +14018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -14032,7 +14044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -14058,7 +14070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>134</v>
       </c>
@@ -14084,7 +14096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -14110,7 +14122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -14136,7 +14148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -14170,6 +14182,11 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14181,9 +14198,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -14203,7 +14220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -14223,7 +14240,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -14243,7 +14260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -14263,7 +14280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -14283,7 +14300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -14303,7 +14320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -14323,7 +14340,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -14346,6 +14363,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14360,7 +14382,7 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
@@ -14368,7 +14390,7 @@
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -14409,7 +14431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -14452,7 +14474,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -14495,7 +14517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -14538,7 +14560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -14581,7 +14603,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -14624,7 +14646,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -14667,7 +14689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -14710,7 +14732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14753,7 +14775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -14796,7 +14818,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -14839,7 +14861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -14879,7 +14901,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -14919,7 +14941,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -14959,7 +14981,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -14999,7 +15021,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -15039,7 +15061,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -15079,7 +15101,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -15119,7 +15141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -15159,7 +15181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -15199,7 +15221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -15239,7 +15261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -15272,7 +15294,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -15305,7 +15327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -15338,7 +15360,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -15371,7 +15393,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -15404,7 +15426,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -15437,7 +15459,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -15470,7 +15492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -15503,7 +15525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -15536,7 +15558,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -15569,7 +15591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -15602,7 +15624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -15635,7 +15657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -15668,7 +15690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -15701,7 +15723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -15734,7 +15756,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -15767,7 +15789,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -15800,7 +15822,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -15833,7 +15855,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -15866,7 +15888,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -15899,7 +15921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -15932,7 +15954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -15965,7 +15987,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -15998,7 +16020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16031,7 +16053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -16061,7 +16083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -16091,7 +16113,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -16121,7 +16143,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -16151,7 +16173,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -16181,7 +16203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>199</v>
       </c>
@@ -16211,7 +16233,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -16241,7 +16263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -16271,7 +16293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -16301,7 +16323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -16331,7 +16353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -16361,7 +16383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -16391,62 +16413,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="16" hidden="1">
       <c r="A58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="16" hidden="1">
       <c r="A59" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="16" hidden="1">
       <c r="A60" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="16" hidden="1">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="16" hidden="1">
       <c r="A62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="16" hidden="1">
       <c r="A63" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="16" hidden="1">
       <c r="A64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="16" hidden="1">
       <c r="A65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="16" hidden="1">
       <c r="A66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="16" hidden="1">
       <c r="A67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="16" hidden="1">
       <c r="A68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="16" hidden="1">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -16456,6 +16478,11 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16470,13 +16497,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -16508,7 +16535,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -16540,7 +16567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -16572,7 +16599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -16598,7 +16625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -16630,7 +16657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -16641,7 +16668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>293</v>
       </c>
@@ -16673,7 +16700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -16705,7 +16732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -16731,7 +16758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -16763,7 +16790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -16795,7 +16822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -16821,7 +16848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -16853,7 +16880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -16885,7 +16912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -16911,7 +16938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -16922,7 +16949,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -16954,7 +16981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -16980,7 +17007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -16991,7 +17018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -17002,7 +17029,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>312</v>
       </c>
@@ -17013,7 +17040,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -17024,7 +17051,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>312</v>
       </c>
@@ -17035,7 +17062,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -17046,7 +17073,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -17057,7 +17084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -17068,7 +17095,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -17079,7 +17106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -17090,7 +17117,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -17101,7 +17128,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -17112,7 +17139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -17123,7 +17150,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -17134,7 +17161,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>313</v>
       </c>
@@ -17145,7 +17172,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -17156,7 +17183,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>328</v>
       </c>
@@ -17167,7 +17194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -17178,7 +17205,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>328</v>
       </c>
@@ -17189,7 +17216,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -17200,7 +17227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -17211,7 +17238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -17222,7 +17249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>328</v>
       </c>
@@ -17233,7 +17260,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -17244,7 +17271,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -17255,7 +17282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -17266,7 +17293,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -17277,7 +17304,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -17288,7 +17315,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -17299,7 +17326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -17310,7 +17337,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -17326,6 +17353,11 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17337,9 +17369,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -17353,7 +17385,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -17367,7 +17399,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -17381,7 +17413,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -17395,7 +17427,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -17409,7 +17441,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -17423,7 +17455,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -17437,7 +17469,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -17451,7 +17483,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -17467,6 +17499,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17478,9 +17515,9 @@
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -17524,7 +17561,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
@@ -17568,7 +17605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>42777</v>
       </c>
@@ -17612,7 +17649,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>42780</v>
       </c>
@@ -17638,7 +17675,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>42793</v>
       </c>
@@ -17664,5 +17701,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/freezingexp.xlsx
+++ b/data/freezingexp.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/freezingexperiment/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="200" windowWidth="25360" windowHeight="14100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="35980" windowHeight="22140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -23,18 +28,18 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="464">
   <si>
     <t>OLD</t>
   </si>
@@ -1416,13 +1421,16 @@
     <t>BBCH 07.4</t>
   </si>
   <si>
-    <t>BBCH 10.7</t>
-  </si>
-  <si>
     <t>04.APR</t>
   </si>
   <si>
     <t>05.APR</t>
+  </si>
+  <si>
+    <t>BBCH 10.4</t>
+  </si>
+  <si>
+    <t>07.APR</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1840,24 +1848,24 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1865,7 +1873,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1873,7 +1881,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1881,32 +1889,32 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1914,7 +1922,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1922,7 +1930,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1930,7 +1938,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1938,7 +1946,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1946,7 +1954,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1954,12 +1962,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>410</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>412</v>
       </c>
@@ -1983,7 +1991,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>414</v>
       </c>
@@ -1991,7 +1999,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>416</v>
       </c>
@@ -1999,7 +2007,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>418</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>420</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>422</v>
       </c>
@@ -2023,12 +2031,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2036,7 +2044,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2052,7 +2060,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>427</v>
       </c>
@@ -2060,7 +2068,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>211</v>
       </c>
@@ -2068,7 +2076,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>430</v>
       </c>
@@ -2076,7 +2084,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>432</v>
       </c>
@@ -2084,12 +2092,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>435</v>
       </c>
@@ -2097,11 +2105,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2112,15 +2115,15 @@
   </sheetPr>
   <dimension ref="A1:AA149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:U1048576"/>
+      <selection pane="bottomRight" activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -2131,7 +2134,7 @@
     <col min="22" max="22" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>459</v>
       </c>
       <c r="X1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Y1" t="s">
         <v>211</v>
@@ -2214,7 +2217,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2301,8 +2304,11 @@
       <c r="V3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="X3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2586,7 +2592,7 @@
       <c r="L11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2614,7 +2620,7 @@
       <c r="L12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2637,7 +2643,7 @@
       <c r="L13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2660,7 +2666,7 @@
       <c r="L14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -2841,8 +2847,11 @@
       <c r="U18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="X18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2874,7 +2883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2908,7 +2917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2948,7 +2957,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2984,8 +2993,11 @@
       <c r="U22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="X22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -3036,7 +3048,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -3070,7 +3082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -3105,8 +3117,11 @@
       <c r="U25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="X25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -3143,7 +3158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3166,7 +3181,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3214,7 +3229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -3251,7 +3266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3282,7 +3297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3330,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -3375,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -3418,7 +3433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3456,7 +3471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -3502,7 +3517,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3525,7 +3540,7 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -3557,7 +3572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3592,7 +3607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3624,7 +3639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
@@ -3669,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3720,7 +3735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>144</v>
       </c>
@@ -3768,7 +3783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -3797,7 +3812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>171</v>
       </c>
@@ -3848,7 +3863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3896,7 +3911,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3932,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -3974,7 +3989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
@@ -4024,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
@@ -4063,7 +4078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4102,7 +4117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
@@ -4152,7 +4167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>23</v>
       </c>
@@ -4199,7 +4214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
@@ -4243,7 +4258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -4275,7 +4290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>41</v>
       </c>
@@ -4310,8 +4325,11 @@
       <c r="U55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -4335,7 +4353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -4362,7 +4380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -4386,7 +4404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -4407,7 +4425,7 @@
       </c>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -4428,7 +4446,7 @@
       </c>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4455,7 +4473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="16" hidden="1">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
@@ -4502,7 +4520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="16" hidden="1">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4547,7 +4565,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="16" hidden="1">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4589,7 +4607,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="16" hidden="1">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -4626,7 +4644,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="16" hidden="1">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -4668,7 +4686,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="16" hidden="1">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -4708,7 +4726,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="16" hidden="1">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -4745,7 +4763,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="16" hidden="1">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4782,7 +4800,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="16" hidden="1">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4822,7 +4840,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="16" hidden="1">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -4864,7 +4882,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="16" hidden="1">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4901,7 +4919,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16" hidden="1">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -4938,7 +4956,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="16" hidden="1">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -4969,7 +4987,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16" hidden="1">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -5009,7 +5027,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="16" hidden="1">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -5054,7 +5072,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16" hidden="1">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -5091,7 +5109,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16" hidden="1">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -5127,7 +5145,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16" hidden="1">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -5160,7 +5178,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16" hidden="1">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -5196,7 +5214,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="16" hidden="1">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -5235,7 +5253,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="16" hidden="1">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -5274,7 +5292,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="16" hidden="1">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -5312,7 +5330,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="16" hidden="1">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>162</v>
       </c>
@@ -5350,7 +5368,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="16" hidden="1">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -5388,7 +5406,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="16" hidden="1">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>61</v>
       </c>
@@ -5434,7 +5452,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="16" hidden="1">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -5477,7 +5495,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="16" hidden="1">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -5520,7 +5538,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="16" hidden="1">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -5556,7 +5574,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="16" hidden="1">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -5595,7 +5613,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="16" hidden="1">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -5636,7 +5654,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="16" hidden="1">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -5677,7 +5695,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="16" hidden="1">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -5718,7 +5736,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="16" hidden="1">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -5762,7 +5780,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="16" hidden="1">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5795,7 +5813,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="16" hidden="1">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -5834,7 +5852,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="16" hidden="1">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -5875,7 +5893,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="16" hidden="1">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -5916,7 +5934,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="16" hidden="1">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -5957,7 +5975,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="16" hidden="1">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -5993,7 +6011,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="16" hidden="1">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>76</v>
       </c>
@@ -6034,7 +6052,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="16" hidden="1">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -6072,7 +6090,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="16" hidden="1">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -6113,7 +6131,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="16" hidden="1">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -6151,7 +6169,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="16" hidden="1">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>23</v>
       </c>
@@ -6190,7 +6208,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="16" hidden="1">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
@@ -6229,7 +6247,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="16" hidden="1">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>43</v>
       </c>
@@ -6272,7 +6290,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="16" hidden="1">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>43</v>
       </c>
@@ -6315,7 +6333,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="16" hidden="1">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>43</v>
       </c>
@@ -6355,7 +6373,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="16" hidden="1">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>142</v>
       </c>
@@ -6406,7 +6424,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="16" hidden="1">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>142</v>
       </c>
@@ -6447,7 +6465,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="16" hidden="1">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>57</v>
       </c>
@@ -6495,7 +6513,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="16" hidden="1">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>61</v>
       </c>
@@ -6540,7 +6558,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="16" hidden="1">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>61</v>
       </c>
@@ -6578,7 +6596,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="16" hidden="1">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>61</v>
       </c>
@@ -6617,7 +6635,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="16" hidden="1">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>61</v>
       </c>
@@ -6670,7 +6688,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="16" hidden="1">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>170</v>
       </c>
@@ -6711,7 +6729,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="16" hidden="1">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>78</v>
       </c>
@@ -6750,7 +6768,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="16" hidden="1">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>70</v>
       </c>
@@ -6786,7 +6804,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="16" hidden="1">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>67</v>
       </c>
@@ -6828,7 +6846,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="16" hidden="1">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>177</v>
       </c>
@@ -6867,7 +6885,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="16" hidden="1">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>177</v>
       </c>
@@ -6903,7 +6921,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="16" hidden="1">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>73</v>
       </c>
@@ -6939,7 +6957,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="16" hidden="1">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>73</v>
       </c>
@@ -6980,7 +6998,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="16" hidden="1">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>73</v>
       </c>
@@ -7024,7 +7042,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="16" hidden="1">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>195</v>
       </c>
@@ -7063,7 +7081,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="16" hidden="1">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>66</v>
       </c>
@@ -7102,7 +7120,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="16" hidden="1">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>195</v>
       </c>
@@ -7138,7 +7156,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="16" hidden="1">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>78</v>
       </c>
@@ -7184,7 +7202,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="16" hidden="1">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>70</v>
       </c>
@@ -7229,7 +7247,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="16" hidden="1">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>67</v>
       </c>
@@ -7275,7 +7293,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="16" hidden="1">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>73</v>
       </c>
@@ -7315,7 +7333,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="16" hidden="1">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>83</v>
       </c>
@@ -7363,7 +7381,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="16" hidden="1">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>66</v>
       </c>
@@ -7412,7 +7430,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="16" hidden="1">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>14</v>
       </c>
@@ -7459,7 +7477,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="16" hidden="1">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>23</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="16" hidden="1">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>14</v>
       </c>
@@ -7553,7 +7571,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="16" hidden="1">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>21</v>
       </c>
@@ -7594,7 +7612,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="16" hidden="1">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>39</v>
       </c>
@@ -7635,7 +7653,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="16" hidden="1">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>49</v>
       </c>
@@ -7676,7 +7694,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="16" hidden="1">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>43</v>
       </c>
@@ -7708,7 +7726,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="16" hidden="1">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>43</v>
       </c>
@@ -7755,7 +7773,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="16" hidden="1">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>45</v>
       </c>
@@ -7805,7 +7823,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="16" hidden="1">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>43</v>
       </c>
@@ -7846,7 +7864,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="16" hidden="1">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>43</v>
       </c>
@@ -7890,7 +7908,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="16" hidden="1">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -7928,7 +7946,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="16" hidden="1">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -7969,7 +7987,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="16" hidden="1">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -8004,7 +8022,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="16" hidden="1">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -8045,11 +8063,6 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup scale="72" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="39"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8064,7 +8077,7 @@
       <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.83203125" hidden="1" customWidth="1"/>
@@ -8072,7 +8085,7 @@
     <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8125,7 +8138,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8164,7 +8177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8197,7 +8210,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -8222,7 +8235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -8255,7 +8268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8280,7 +8293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -8302,7 +8315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -8329,7 +8342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -8360,7 +8373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -8388,7 +8401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -8413,7 +8426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -8438,7 +8451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -8460,7 +8473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -8473,7 +8486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -8500,7 +8513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -8517,7 +8530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -8534,7 +8547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -8556,7 +8569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -8587,7 +8600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -8612,7 +8625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -8632,7 +8645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -8652,7 +8665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -8696,7 +8709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>159</v>
       </c>
@@ -8715,7 +8728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -8746,7 +8759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>95</v>
       </c>
@@ -8780,7 +8793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -8797,7 +8810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -8813,7 +8826,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -8838,7 +8851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -8860,7 +8873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -8893,7 +8906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>121</v>
       </c>
@@ -8915,7 +8928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -8942,7 +8955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
@@ -8967,7 +8980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -8981,7 +8994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -9017,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>113</v>
       </c>
@@ -9036,7 +9049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -9052,7 +9065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>110</v>
       </c>
@@ -9085,7 +9098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>123</v>
       </c>
@@ -9118,7 +9131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -9149,7 +9162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -9169,7 +9182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>137</v>
       </c>
@@ -9203,7 +9216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -9220,7 +9233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -9240,7 +9253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -9263,7 +9276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -9280,7 +9293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>150</v>
       </c>
@@ -9313,7 +9326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
@@ -9352,7 +9365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>157</v>
       </c>
@@ -9388,7 +9401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -9405,7 +9418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>172</v>
       </c>
@@ -9444,7 +9457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
@@ -9480,7 +9493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -9501,7 +9514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -9522,7 +9535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -9543,7 +9556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -9572,7 +9585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
@@ -9593,7 +9606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
@@ -9614,7 +9627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>15</v>
       </c>
@@ -9646,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
@@ -9675,7 +9688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -9704,7 +9717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
@@ -9736,7 +9749,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -9762,7 +9775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>27</v>
       </c>
@@ -9791,7 +9804,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -9811,7 +9824,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -9840,7 +9853,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>42</v>
       </c>
@@ -9864,7 +9877,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -9876,7 +9889,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -9888,7 +9901,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -9897,7 +9910,7 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -9906,7 +9919,7 @@
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -9915,7 +9928,7 @@
       </c>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -9933,7 +9946,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
@@ -9971,7 +9984,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -10001,7 +10014,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -10029,7 +10042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -10059,7 +10072,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -10084,7 +10097,7 @@
       </c>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -10109,7 +10122,7 @@
       </c>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -10142,7 +10155,7 @@
       </c>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>147</v>
       </c>
@@ -10167,7 +10180,7 @@
       </c>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -10191,7 +10204,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -10212,7 +10225,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>138</v>
       </c>
@@ -10236,7 +10249,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -10263,7 +10276,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -10287,7 +10300,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -10313,7 +10326,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -10339,7 +10352,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -10365,7 +10378,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -10399,7 +10412,7 @@
       </c>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -10427,7 +10440,7 @@
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -10458,7 +10471,7 @@
       </c>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -10482,7 +10495,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -10506,7 +10519,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -10535,7 +10548,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -10564,7 +10577,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -10590,7 +10603,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -10619,7 +10632,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -10640,7 +10653,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -10667,7 +10680,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>75</v>
       </c>
@@ -10693,7 +10706,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -10719,7 +10732,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -10745,7 +10758,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -10769,7 +10782,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>77</v>
       </c>
@@ -10795,7 +10808,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>173</v>
       </c>
@@ -10821,7 +10834,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>176</v>
       </c>
@@ -10850,7 +10863,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -10876,7 +10889,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>117</v>
       </c>
@@ -10903,7 +10916,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>118</v>
       </c>
@@ -10930,7 +10943,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>151</v>
       </c>
@@ -10964,7 +10977,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>154</v>
       </c>
@@ -11001,7 +11014,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>156</v>
       </c>
@@ -11029,7 +11042,7 @@
       </c>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>153</v>
       </c>
@@ -11068,7 +11081,7 @@
       </c>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>155</v>
       </c>
@@ -11097,7 +11110,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>166</v>
       </c>
@@ -11133,7 +11146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>168</v>
       </c>
@@ -11159,7 +11172,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>65</v>
       </c>
@@ -11183,7 +11196,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>62</v>
       </c>
@@ -11221,7 +11234,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>169</v>
       </c>
@@ -11250,7 +11263,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>193</v>
       </c>
@@ -11277,7 +11290,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>190</v>
       </c>
@@ -11301,7 +11314,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>68</v>
       </c>
@@ -11328,7 +11341,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -11355,7 +11368,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>198</v>
       </c>
@@ -11379,7 +11392,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>192</v>
       </c>
@@ -11403,7 +11416,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>74</v>
       </c>
@@ -11429,7 +11442,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>82</v>
       </c>
@@ -11458,7 +11471,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>196</v>
       </c>
@@ -11485,7 +11498,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>72</v>
       </c>
@@ -11509,7 +11522,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>197</v>
       </c>
@@ -11533,7 +11546,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>189</v>
       </c>
@@ -11567,7 +11580,7 @@
       </c>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>194</v>
       </c>
@@ -11600,7 +11613,7 @@
       </c>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>175</v>
       </c>
@@ -11640,7 +11653,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>186</v>
       </c>
@@ -11674,7 +11687,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>84</v>
       </c>
@@ -11713,7 +11726,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>69</v>
       </c>
@@ -11753,7 +11766,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>22</v>
       </c>
@@ -11779,7 +11792,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>50</v>
       </c>
@@ -11811,7 +11824,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>44</v>
       </c>
@@ -11828,7 +11841,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>54</v>
       </c>
@@ -11860,7 +11873,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>46</v>
       </c>
@@ -11895,7 +11908,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>47</v>
       </c>
@@ -11921,7 +11934,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>48</v>
       </c>
@@ -11950,7 +11963,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>174</v>
       </c>
@@ -11976,7 +11989,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>182</v>
       </c>
@@ -12005,7 +12018,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>187</v>
       </c>
@@ -12028,7 +12041,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>188</v>
       </c>
@@ -12053,29 +12066,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -12122,7 +12130,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -12145,7 +12153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -12168,7 +12176,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -12191,7 +12199,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -12214,7 +12222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -12237,7 +12245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -12260,7 +12268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -12283,7 +12291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -12306,7 +12314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -12329,7 +12337,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -12352,7 +12360,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -12375,7 +12383,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -12398,7 +12406,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -12421,7 +12429,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -12444,7 +12452,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -12467,7 +12475,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -12490,7 +12498,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -12534,7 +12542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -12557,7 +12565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -12580,7 +12588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -12603,7 +12611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12629,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -12655,7 +12663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -12681,7 +12689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -12707,7 +12715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -12733,7 +12741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -12759,7 +12767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -12785,7 +12793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -12811,7 +12819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -12837,7 +12845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12863,7 +12871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -12889,7 +12897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -12915,7 +12923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -12941,7 +12949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -12967,7 +12975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -13014,7 +13022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -13040,7 +13048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -13087,7 +13095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -13113,7 +13121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -13139,7 +13147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -13165,7 +13173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -13191,7 +13199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -13238,7 +13246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -13264,7 +13272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -13290,7 +13298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -13316,7 +13324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -13342,7 +13350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -13368,7 +13376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -13394,7 +13402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -13420,7 +13428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -13446,7 +13454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -13472,7 +13480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -13498,7 +13506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -13524,7 +13532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -13550,7 +13558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -13576,7 +13584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -13602,7 +13610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -13628,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -13654,7 +13662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -13680,7 +13688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -13706,7 +13714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -13732,7 +13740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -13758,7 +13766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -13784,7 +13792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -13810,7 +13818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -13836,7 +13844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -13862,7 +13870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -13888,7 +13896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -13914,7 +13922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -13939,8 +13947,20 @@
       <c r="H70" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="M70" t="s">
+        <v>5</v>
+      </c>
+      <c r="N70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -13966,18 +13986,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C72" s="3">
         <v>0.3888888888888889</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E72" s="3">
         <v>0.26805555555555555</v>
@@ -13992,18 +14012,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C73" s="3">
         <v>0.3888888888888889</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E73" s="3">
         <v>0.26805555555555555</v>
@@ -14018,18 +14038,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C74" s="3">
         <v>0.3888888888888889</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E74" s="3">
         <v>0.26805555555555555</v>
@@ -14044,18 +14064,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C75" s="3">
         <v>0.3888888888888889</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E75" s="3">
         <v>0.26805555555555555</v>
@@ -14070,18 +14090,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C76" s="3">
         <v>0.3888888888888889</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E76" s="3">
         <v>0.26805555555555555</v>
@@ -14096,18 +14116,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C77" s="3">
         <v>0.3888888888888889</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E77" s="3">
         <v>0.26805555555555555</v>
@@ -14122,18 +14142,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C78" s="3">
         <v>0.3888888888888889</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E78" s="3">
         <v>0.26805555555555555</v>
@@ -14148,18 +14168,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C79" s="3">
         <v>0.3888888888888889</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E79" s="3">
         <v>0.26805555555555555</v>
@@ -14172,6 +14192,57 @@
       </c>
       <c r="H79" s="8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" t="s">
+        <v>463</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="F80">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
+        <v>463</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="F81">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>463</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -14182,11 +14253,6 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14195,12 +14261,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -14220,7 +14286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -14240,7 +14306,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -14260,7 +14326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -14280,7 +14346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -14300,7 +14366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -14320,7 +14386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -14340,7 +14406,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -14363,11 +14429,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14382,7 +14443,7 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
@@ -14390,7 +14451,7 @@
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -14431,7 +14492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -14474,7 +14535,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -14517,7 +14578,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -14560,7 +14621,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -14603,7 +14664,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -14646,7 +14707,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -14689,7 +14750,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -14732,7 +14793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14775,7 +14836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -14818,7 +14879,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -14861,7 +14922,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -14901,7 +14962,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -14941,7 +15002,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -14981,7 +15042,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -15021,7 +15082,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -15061,7 +15122,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -15101,7 +15162,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -15141,7 +15202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -15181,7 +15242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -15221,7 +15282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -15261,7 +15322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -15294,7 +15355,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -15327,7 +15388,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -15360,7 +15421,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -15393,7 +15454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -15426,7 +15487,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -15459,7 +15520,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -15492,7 +15553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -15525,7 +15586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -15558,7 +15619,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -15591,7 +15652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -15624,7 +15685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -15657,7 +15718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -15690,7 +15751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -15723,7 +15784,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -15756,7 +15817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -15789,7 +15850,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -15822,7 +15883,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -15855,7 +15916,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -15888,7 +15949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -15921,7 +15982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -15954,7 +16015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -15987,7 +16048,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -16020,7 +16081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16053,7 +16114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -16083,7 +16144,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -16113,7 +16174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -16143,7 +16204,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -16173,7 +16234,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -16203,7 +16264,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>199</v>
       </c>
@@ -16233,7 +16294,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -16263,7 +16324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -16293,7 +16354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -16323,7 +16384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -16353,7 +16414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -16383,7 +16444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -16413,62 +16474,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16" hidden="1">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16" hidden="1">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16" hidden="1">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16" hidden="1">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" hidden="1">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16" hidden="1">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" hidden="1">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="16" hidden="1">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="16" hidden="1">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="16" hidden="1">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="16" hidden="1">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="16" hidden="1">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -16478,11 +16539,6 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16497,13 +16553,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -16535,7 +16591,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -16567,7 +16623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -16599,7 +16655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -16625,7 +16681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -16657,7 +16713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -16668,7 +16724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>293</v>
       </c>
@@ -16700,7 +16756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -16732,7 +16788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -16758,7 +16814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -16790,7 +16846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -16822,7 +16878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -16848,7 +16904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -16880,7 +16936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -16912,7 +16968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -16938,7 +16994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -16949,7 +17005,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -16981,7 +17037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -17007,7 +17063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -17018,7 +17074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -17029,7 +17085,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>312</v>
       </c>
@@ -17040,7 +17096,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -17051,7 +17107,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>312</v>
       </c>
@@ -17062,7 +17118,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -17073,7 +17129,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -17084,7 +17140,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -17095,7 +17151,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -17106,7 +17162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -17117,7 +17173,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -17128,7 +17184,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -17139,7 +17195,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -17150,7 +17206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -17161,7 +17217,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>313</v>
       </c>
@@ -17172,7 +17228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -17183,7 +17239,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>328</v>
       </c>
@@ -17194,7 +17250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -17205,7 +17261,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>328</v>
       </c>
@@ -17216,7 +17272,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -17227,7 +17283,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -17238,7 +17294,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -17249,7 +17305,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>328</v>
       </c>
@@ -17260,7 +17316,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -17271,7 +17327,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -17282,7 +17338,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -17293,7 +17349,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -17304,7 +17360,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -17315,7 +17371,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -17326,7 +17382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -17337,7 +17393,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -17353,11 +17409,6 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17369,9 +17420,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -17385,7 +17436,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -17399,7 +17450,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -17413,7 +17464,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -17427,7 +17478,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -17441,7 +17492,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -17455,7 +17506,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -17469,7 +17520,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -17483,7 +17534,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -17499,11 +17550,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17515,9 +17561,9 @@
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -17561,7 +17607,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
@@ -17605,7 +17651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42777</v>
       </c>
@@ -17649,7 +17695,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42780</v>
       </c>
@@ -17675,7 +17721,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42793</v>
       </c>
@@ -17701,10 +17747,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/freezingexp.xlsx
+++ b/data/freezingexp.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/freezingexperiment/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="35980" windowHeight="22140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-640" yWindow="120" windowWidth="25360" windowHeight="14060" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -26,20 +21,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FRZ!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TX!$A$1:$N$149</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="465">
   <si>
     <t>OLD</t>
   </si>
@@ -1431,6 +1426,9 @@
   </si>
   <si>
     <t>07.APR</t>
+  </si>
+  <si>
+    <t>Data can be found on FRZ sheet</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1842,30 +1840,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1873,7 +1871,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1881,7 +1879,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1889,32 +1887,32 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1922,7 +1920,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1930,7 +1928,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1938,7 +1936,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1946,7 +1944,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1954,7 +1952,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1962,12 +1960,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +1973,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>410</v>
       </c>
@@ -1983,7 +1981,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>412</v>
       </c>
@@ -1991,7 +1989,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>414</v>
       </c>
@@ -1999,7 +1997,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>416</v>
       </c>
@@ -2007,7 +2005,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>418</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>420</v>
       </c>
@@ -2023,7 +2021,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>422</v>
       </c>
@@ -2031,12 +2029,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2042,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2052,7 +2050,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2060,7 +2058,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>427</v>
       </c>
@@ -2068,7 +2066,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>211</v>
       </c>
@@ -2076,7 +2074,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>430</v>
       </c>
@@ -2084,7 +2082,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>432</v>
       </c>
@@ -2092,19 +2090,29 @@
         <v>433</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2115,26 +2123,24 @@
   </sheetPr>
   <dimension ref="A1:AA149"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B144" sqref="B144"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="12" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="21" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" customWidth="1"/>
+    <col min="3" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="22" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2472,7 +2478,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2592,7 +2598,7 @@
       <c r="L11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2620,7 +2626,7 @@
       <c r="L12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2643,7 +2649,7 @@
       <c r="L13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2666,7 +2672,7 @@
       <c r="L14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2725,7 +2731,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -3082,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3540,7 +3546,7 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -3572,7 +3578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3607,7 +3613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3639,7 +3645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" s="4" t="s">
         <v>144</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -3812,7 +3818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44" s="4" t="s">
         <v>171</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3947,7 +3953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4117,7 +4123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24">
       <c r="A52" s="4" t="s">
         <v>23</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -4290,7 +4296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24">
       <c r="A55" s="4" t="s">
         <v>41</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -4353,7 +4359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -4425,7 +4431,7 @@
       </c>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -4446,7 +4452,7 @@
       </c>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4565,7 +4571,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4607,7 +4613,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -4644,7 +4650,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -4763,7 +4769,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4800,7 +4806,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4840,7 +4846,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4919,7 +4925,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -4956,7 +4962,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -4987,7 +4993,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -5027,7 +5033,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -5072,7 +5078,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -5145,7 +5151,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -5214,7 +5220,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>162</v>
       </c>
@@ -5368,7 +5374,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -5406,7 +5412,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>61</v>
       </c>
@@ -5452,7 +5458,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -5495,7 +5501,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -5574,7 +5580,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -5613,7 +5619,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -5695,7 +5701,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -5736,7 +5742,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -5780,7 +5786,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5813,7 +5819,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -5852,7 +5858,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -5893,7 +5899,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -5975,7 +5981,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19">
       <c r="A101" t="s">
         <v>76</v>
       </c>
@@ -6052,7 +6058,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -6131,7 +6137,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19">
       <c r="A105" s="4" t="s">
         <v>23</v>
       </c>
@@ -6208,7 +6214,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19">
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
@@ -6247,7 +6253,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19">
       <c r="A107" s="4" t="s">
         <v>43</v>
       </c>
@@ -6290,7 +6296,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19">
       <c r="A108" s="4" t="s">
         <v>43</v>
       </c>
@@ -6333,7 +6339,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
         <v>43</v>
       </c>
@@ -6373,7 +6379,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19">
       <c r="A110" s="4" t="s">
         <v>142</v>
       </c>
@@ -6424,7 +6430,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
         <v>142</v>
       </c>
@@ -6465,7 +6471,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19">
       <c r="A112" s="4" t="s">
         <v>57</v>
       </c>
@@ -6513,7 +6519,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113" s="4" t="s">
         <v>61</v>
       </c>
@@ -6558,7 +6564,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114" s="4" t="s">
         <v>61</v>
       </c>
@@ -6596,7 +6602,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115" s="9" t="s">
         <v>61</v>
       </c>
@@ -6635,7 +6641,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116" s="4" t="s">
         <v>61</v>
       </c>
@@ -6688,7 +6694,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117" s="4" t="s">
         <v>170</v>
       </c>
@@ -6729,7 +6735,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118" s="4" t="s">
         <v>78</v>
       </c>
@@ -6768,7 +6774,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119" s="4" t="s">
         <v>70</v>
       </c>
@@ -6804,7 +6810,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20">
       <c r="A120" s="4" t="s">
         <v>67</v>
       </c>
@@ -6846,7 +6852,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121" s="4" t="s">
         <v>177</v>
       </c>
@@ -6885,7 +6891,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122" s="4" t="s">
         <v>177</v>
       </c>
@@ -6921,7 +6927,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123" s="4" t="s">
         <v>73</v>
       </c>
@@ -6957,7 +6963,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124" s="4" t="s">
         <v>73</v>
       </c>
@@ -6998,7 +7004,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125" s="4" t="s">
         <v>73</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" s="4" t="s">
         <v>195</v>
       </c>
@@ -7081,7 +7087,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" s="4" t="s">
         <v>66</v>
       </c>
@@ -7120,7 +7126,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128" s="4" t="s">
         <v>195</v>
       </c>
@@ -7156,7 +7162,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" s="4" t="s">
         <v>78</v>
       </c>
@@ -7202,7 +7208,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" s="4" t="s">
         <v>70</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" s="4" t="s">
         <v>67</v>
       </c>
@@ -7293,7 +7299,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" s="4" t="s">
         <v>73</v>
       </c>
@@ -7333,7 +7339,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" s="4" t="s">
         <v>83</v>
       </c>
@@ -7381,7 +7387,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" s="4" t="s">
         <v>66</v>
       </c>
@@ -7430,7 +7436,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" s="4" t="s">
         <v>14</v>
       </c>
@@ -7477,7 +7483,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136" s="4" t="s">
         <v>23</v>
       </c>
@@ -7521,7 +7527,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" s="4" t="s">
         <v>14</v>
       </c>
@@ -7571,7 +7577,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" s="4" t="s">
         <v>21</v>
       </c>
@@ -7612,7 +7618,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" s="4" t="s">
         <v>39</v>
       </c>
@@ -7653,7 +7659,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" s="4" t="s">
         <v>49</v>
       </c>
@@ -7694,7 +7700,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" s="4" t="s">
         <v>43</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" s="4" t="s">
         <v>43</v>
       </c>
@@ -7773,7 +7779,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" s="4" t="s">
         <v>45</v>
       </c>
@@ -7823,7 +7829,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144" s="4" t="s">
         <v>43</v>
       </c>
@@ -7864,7 +7870,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18">
       <c r="A145" s="4" t="s">
         <v>43</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -7946,7 +7952,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -7987,7 +7993,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -8022,7 +8028,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -8063,6 +8069,11 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup scale="72" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8071,13 +8082,13 @@
   <dimension ref="A1:Q149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.83203125" hidden="1" customWidth="1"/>
@@ -8085,7 +8096,7 @@
     <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8138,7 +8149,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8177,7 +8188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8210,7 +8221,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -8235,7 +8246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -8268,7 +8279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8293,7 +8304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -8315,7 +8326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -8342,7 +8353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -8373,7 +8384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -8401,7 +8412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -8426,7 +8437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -8451,7 +8462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -8473,7 +8484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -8486,7 +8497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -8513,7 +8524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -8530,7 +8541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -8547,7 +8558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -8569,7 +8580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -8600,7 +8611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -8625,7 +8636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -8645,7 +8656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -8665,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -8709,7 +8720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>159</v>
       </c>
@@ -8728,7 +8739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -8759,7 +8770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
         <v>95</v>
       </c>
@@ -8793,7 +8804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -8810,7 +8821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -8826,7 +8837,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -8851,7 +8862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -8873,7 +8884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -8906,7 +8917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
         <v>121</v>
       </c>
@@ -8928,7 +8939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -8955,7 +8966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
@@ -8980,7 +8991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -8994,7 +9005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -9030,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
         <v>113</v>
       </c>
@@ -9049,7 +9060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -9065,7 +9076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
         <v>110</v>
       </c>
@@ -9098,7 +9109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="4" t="s">
         <v>123</v>
       </c>
@@ -9131,7 +9142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -9162,7 +9173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -9182,7 +9193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
         <v>137</v>
       </c>
@@ -9216,7 +9227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -9233,7 +9244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -9253,7 +9264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -9276,7 +9287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -9293,7 +9304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="4" t="s">
         <v>150</v>
       </c>
@@ -9326,7 +9337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
@@ -9365,7 +9376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="4" t="s">
         <v>157</v>
       </c>
@@ -9401,7 +9412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -9418,7 +9429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52" s="4" t="s">
         <v>172</v>
       </c>
@@ -9457,7 +9468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
@@ -9493,7 +9504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -9514,7 +9525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -9535,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -9556,7 +9567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -9585,7 +9596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
@@ -9606,7 +9617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
@@ -9627,7 +9638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="A60" s="4" t="s">
         <v>15</v>
       </c>
@@ -9659,7 +9670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
@@ -9688,7 +9699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -9717,7 +9728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
@@ -9749,7 +9760,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -9775,7 +9786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" s="4" t="s">
         <v>27</v>
       </c>
@@ -9804,7 +9815,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -9824,7 +9835,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -9853,7 +9864,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="A68" s="4" t="s">
         <v>42</v>
       </c>
@@ -9877,7 +9888,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -9889,7 +9900,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -9901,7 +9912,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -9910,7 +9921,7 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -9919,7 +9930,7 @@
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -9928,7 +9939,7 @@
       </c>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -9946,7 +9957,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
@@ -9984,7 +9995,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -10014,7 +10025,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -10042,7 +10053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -10072,7 +10083,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -10097,7 +10108,7 @@
       </c>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -10122,7 +10133,7 @@
       </c>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -10155,7 +10166,7 @@
       </c>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>147</v>
       </c>
@@ -10180,7 +10191,7 @@
       </c>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -10204,7 +10215,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -10225,7 +10236,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>138</v>
       </c>
@@ -10249,7 +10260,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -10276,7 +10287,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -10300,7 +10311,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -10326,7 +10337,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -10352,7 +10363,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -10378,7 +10389,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -10412,7 +10423,7 @@
       </c>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -10440,7 +10451,7 @@
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -10471,7 +10482,7 @@
       </c>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -10495,7 +10506,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -10519,7 +10530,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -10548,7 +10559,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -10577,7 +10588,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -10603,7 +10614,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -10632,7 +10643,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -10653,7 +10664,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -10680,7 +10691,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>75</v>
       </c>
@@ -10706,7 +10717,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -10732,7 +10743,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -10758,7 +10769,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -10782,7 +10793,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>77</v>
       </c>
@@ -10808,7 +10819,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>173</v>
       </c>
@@ -10834,7 +10845,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>176</v>
       </c>
@@ -10863,7 +10874,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -10889,7 +10900,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="A110" s="4" t="s">
         <v>117</v>
       </c>
@@ -10916,7 +10927,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="A111" s="4" t="s">
         <v>118</v>
       </c>
@@ -10943,7 +10954,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15">
       <c r="A112" s="4" t="s">
         <v>151</v>
       </c>
@@ -10977,7 +10988,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16">
       <c r="A113" s="4" t="s">
         <v>154</v>
       </c>
@@ -11014,7 +11025,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16">
       <c r="A114" s="4" t="s">
         <v>156</v>
       </c>
@@ -11042,7 +11053,7 @@
       </c>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16">
       <c r="A115" s="4" t="s">
         <v>153</v>
       </c>
@@ -11081,7 +11092,7 @@
       </c>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16">
       <c r="A116" s="4" t="s">
         <v>155</v>
       </c>
@@ -11110,7 +11121,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16">
       <c r="A117" s="4" t="s">
         <v>166</v>
       </c>
@@ -11146,7 +11157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16">
       <c r="A118" s="4" t="s">
         <v>168</v>
       </c>
@@ -11172,7 +11183,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16">
       <c r="A119" s="9" t="s">
         <v>65</v>
       </c>
@@ -11196,7 +11207,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16">
       <c r="A120" s="4" t="s">
         <v>62</v>
       </c>
@@ -11234,7 +11245,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16">
       <c r="A121" s="4" t="s">
         <v>169</v>
       </c>
@@ -11263,7 +11274,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16">
       <c r="A122" s="4" t="s">
         <v>193</v>
       </c>
@@ -11290,7 +11301,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16">
       <c r="A123" s="4" t="s">
         <v>190</v>
       </c>
@@ -11314,7 +11325,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16">
       <c r="A124" s="4" t="s">
         <v>68</v>
       </c>
@@ -11341,7 +11352,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -11368,7 +11379,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16">
       <c r="A126" s="4" t="s">
         <v>198</v>
       </c>
@@ -11392,7 +11403,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16">
       <c r="A127" s="4" t="s">
         <v>192</v>
       </c>
@@ -11416,7 +11427,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16">
       <c r="A128" s="4" t="s">
         <v>74</v>
       </c>
@@ -11442,7 +11453,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16">
       <c r="A129" s="4" t="s">
         <v>82</v>
       </c>
@@ -11471,7 +11482,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16">
       <c r="A130" s="4" t="s">
         <v>196</v>
       </c>
@@ -11498,7 +11509,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16">
       <c r="A131" s="4" t="s">
         <v>72</v>
       </c>
@@ -11522,7 +11533,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16">
       <c r="A132" s="4" t="s">
         <v>197</v>
       </c>
@@ -11546,7 +11557,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16">
       <c r="A133" s="4" t="s">
         <v>189</v>
       </c>
@@ -11580,7 +11591,7 @@
       </c>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16">
       <c r="A134" s="4" t="s">
         <v>194</v>
       </c>
@@ -11613,7 +11624,7 @@
       </c>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16">
       <c r="A135" s="4" t="s">
         <v>175</v>
       </c>
@@ -11653,7 +11664,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16">
       <c r="A136" s="4" t="s">
         <v>186</v>
       </c>
@@ -11687,7 +11698,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16">
       <c r="A137" s="4" t="s">
         <v>84</v>
       </c>
@@ -11726,7 +11737,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16">
       <c r="A138" s="4" t="s">
         <v>69</v>
       </c>
@@ -11766,7 +11777,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16">
       <c r="A139" s="4" t="s">
         <v>22</v>
       </c>
@@ -11792,7 +11803,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16">
       <c r="A140" s="4" t="s">
         <v>50</v>
       </c>
@@ -11824,7 +11835,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16">
       <c r="A141" s="4" t="s">
         <v>44</v>
       </c>
@@ -11841,7 +11852,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16">
       <c r="A142" s="4" t="s">
         <v>54</v>
       </c>
@@ -11873,7 +11884,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16">
       <c r="A143" s="4" t="s">
         <v>46</v>
       </c>
@@ -11908,7 +11919,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16">
       <c r="A144" s="4" t="s">
         <v>47</v>
       </c>
@@ -11934,7 +11945,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145" s="4" t="s">
         <v>48</v>
       </c>
@@ -11963,7 +11974,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" s="4" t="s">
         <v>174</v>
       </c>
@@ -11989,7 +12000,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" s="4" t="s">
         <v>182</v>
       </c>
@@ -12018,7 +12029,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148" s="4" t="s">
         <v>187</v>
       </c>
@@ -12041,7 +12052,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" s="4" t="s">
         <v>188</v>
       </c>
@@ -12066,6 +12077,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12073,17 +12089,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -12130,7 +12146,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -12153,7 +12169,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -12176,7 +12192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -12199,7 +12215,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -12222,7 +12238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -12245,7 +12261,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -12268,7 +12284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -12291,7 +12307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -12314,7 +12330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -12337,7 +12353,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -12360,7 +12376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -12383,7 +12399,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -12406,7 +12422,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -12429,7 +12445,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -12452,7 +12468,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -12475,7 +12491,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -12498,7 +12514,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -12542,7 +12558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -12565,7 +12581,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -12588,7 +12604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -12611,7 +12627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12637,7 +12653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -12663,7 +12679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -12689,7 +12705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -12715,7 +12731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -12741,7 +12757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -12767,7 +12783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -12793,7 +12809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -12819,7 +12835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -12845,7 +12861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12871,7 +12887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -12897,7 +12913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -12923,7 +12939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -12949,7 +12965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -12975,7 +12991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -13022,7 +13038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -13048,7 +13064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -13095,7 +13111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -13121,7 +13137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -13147,7 +13163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -13173,7 +13189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -13199,7 +13215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -13246,7 +13262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -13272,7 +13288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -13298,7 +13314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -13324,7 +13340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -13350,7 +13366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -13376,7 +13392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -13402,7 +13418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -13428,7 +13444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -13454,7 +13470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -13480,7 +13496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -13506,7 +13522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -13532,7 +13548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -13558,7 +13574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -13584,7 +13600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -13610,7 +13626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -13636,7 +13652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -13662,7 +13678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -13688,7 +13704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -13714,7 +13730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -13740,7 +13756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -13766,7 +13782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -13792,7 +13808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -13818,7 +13834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -13844,7 +13860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -13870,7 +13886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -13896,7 +13912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -13922,7 +13938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -13960,7 +13976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -13986,7 +14002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -14012,7 +14028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -14038,7 +14054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -14064,7 +14080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -14090,7 +14106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>134</v>
       </c>
@@ -14116,7 +14132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -14142,7 +14158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -14168,7 +14184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -14194,7 +14210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -14211,7 +14227,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -14228,7 +14244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>56</v>
       </c>
@@ -14253,6 +14269,11 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14264,9 +14285,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -14286,7 +14307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -14306,7 +14327,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -14326,7 +14347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -14346,7 +14367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -14366,7 +14387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -14386,7 +14407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -14406,7 +14427,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -14429,6 +14450,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14443,7 +14469,7 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
@@ -14451,7 +14477,7 @@
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -14492,7 +14518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -14535,7 +14561,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -14578,7 +14604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -14621,7 +14647,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -14664,7 +14690,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -14707,7 +14733,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -14750,7 +14776,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -14793,7 +14819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14836,7 +14862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -14879,7 +14905,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -14922,7 +14948,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -14962,7 +14988,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -15002,7 +15028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -15042,7 +15068,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -15082,7 +15108,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -15122,7 +15148,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -15162,7 +15188,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -15202,7 +15228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -15242,7 +15268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -15282,7 +15308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -15322,7 +15348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -15355,7 +15381,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -15388,7 +15414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -15421,7 +15447,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -15454,7 +15480,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -15487,7 +15513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -15520,7 +15546,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -15553,7 +15579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -15586,7 +15612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -15619,7 +15645,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -15652,7 +15678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -15685,7 +15711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -15718,7 +15744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -15751,7 +15777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -15784,7 +15810,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -15817,7 +15843,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -15850,7 +15876,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -15883,7 +15909,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -15916,7 +15942,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -15949,7 +15975,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -15982,7 +16008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -16015,7 +16041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -16048,7 +16074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -16081,7 +16107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16114,7 +16140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -16144,7 +16170,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -16174,7 +16200,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -16204,7 +16230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -16234,7 +16260,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -16264,7 +16290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>199</v>
       </c>
@@ -16294,7 +16320,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -16324,7 +16350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -16354,7 +16380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -16384,7 +16410,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -16414,7 +16440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -16444,7 +16470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -16474,62 +16500,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="16" hidden="1">
       <c r="A58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="16" hidden="1">
       <c r="A59" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="16" hidden="1">
       <c r="A60" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="16" hidden="1">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="16" hidden="1">
       <c r="A62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="16" hidden="1">
       <c r="A63" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="16" hidden="1">
       <c r="A64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="16" hidden="1">
       <c r="A65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="16" hidden="1">
       <c r="A66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="16" hidden="1">
       <c r="A67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="16" hidden="1">
       <c r="A68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="16" hidden="1">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -16539,6 +16565,11 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16553,13 +16584,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -16591,7 +16622,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -16623,7 +16654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -16655,7 +16686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -16681,7 +16712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -16713,7 +16744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -16724,7 +16755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>293</v>
       </c>
@@ -16756,7 +16787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -16788,7 +16819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -16814,7 +16845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -16846,7 +16877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -16878,7 +16909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -16904,7 +16935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -16936,7 +16967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -16968,7 +16999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -16994,7 +17025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -17005,7 +17036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -17037,7 +17068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -17063,7 +17094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -17074,7 +17105,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -17085,7 +17116,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>312</v>
       </c>
@@ -17096,7 +17127,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -17107,7 +17138,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>312</v>
       </c>
@@ -17118,7 +17149,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -17129,7 +17160,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -17140,7 +17171,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -17151,7 +17182,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -17162,7 +17193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -17173,7 +17204,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -17184,7 +17215,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -17195,7 +17226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -17206,7 +17237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -17217,7 +17248,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>313</v>
       </c>
@@ -17228,7 +17259,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -17239,7 +17270,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>328</v>
       </c>
@@ -17250,7 +17281,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -17261,7 +17292,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>328</v>
       </c>
@@ -17272,7 +17303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -17283,7 +17314,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -17294,7 +17325,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -17305,7 +17336,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>328</v>
       </c>
@@ -17316,7 +17347,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -17327,7 +17358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -17338,7 +17369,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -17349,7 +17380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -17360,7 +17391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -17371,7 +17402,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -17382,7 +17413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -17393,7 +17424,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -17409,6 +17440,11 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17420,9 +17456,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -17436,7 +17472,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -17450,7 +17486,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -17464,7 +17500,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -17478,7 +17514,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -17492,7 +17528,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -17506,7 +17542,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -17520,7 +17556,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -17534,7 +17570,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -17550,6 +17586,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17557,13 +17598,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -17607,7 +17648,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
@@ -17651,7 +17692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>42777</v>
       </c>
@@ -17695,7 +17736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>42780</v>
       </c>
@@ -17721,7 +17762,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>42793</v>
       </c>
@@ -17747,5 +17788,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/freezingexp.xlsx
+++ b/data/freezingexp.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/freezingexperiment/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-640" yWindow="120" windowWidth="25360" windowHeight="14060" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="3780" yWindow="1200" windowWidth="42440" windowHeight="21640" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -21,20 +26,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FRZ!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TX!$A$1:$N$149</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="467">
   <si>
     <t>OLD</t>
   </si>
@@ -1429,6 +1434,12 @@
   </si>
   <si>
     <t>Data can be found on FRZ sheet</t>
+  </si>
+  <si>
+    <t>BBCH 13.4</t>
+  </si>
+  <si>
+    <t>11.APR</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1846,24 +1857,24 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1871,7 +1882,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1879,7 +1890,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1887,32 +1898,32 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1920,7 +1931,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1928,7 +1939,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1936,7 +1947,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1944,7 +1955,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1952,7 +1963,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1960,12 +1971,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1973,7 +1984,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>410</v>
       </c>
@@ -1981,7 +1992,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>412</v>
       </c>
@@ -1989,7 +2000,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>414</v>
       </c>
@@ -1997,7 +2008,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>416</v>
       </c>
@@ -2005,7 +2016,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>418</v>
       </c>
@@ -2013,7 +2024,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>420</v>
       </c>
@@ -2021,7 +2032,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>422</v>
       </c>
@@ -2029,12 +2040,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2053,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2050,7 +2061,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2058,7 +2069,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>427</v>
       </c>
@@ -2066,7 +2077,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>211</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>430</v>
       </c>
@@ -2082,7 +2093,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>432</v>
       </c>
@@ -2090,17 +2101,17 @@
         <v>433</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>464</v>
       </c>
@@ -2108,11 +2119,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2124,14 +2130,14 @@
   <dimension ref="A1:AA149"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P34" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="Y57" sqref="Y57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -2140,7 +2146,7 @@
     <col min="14" max="22" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2213,8 +2219,8 @@
       <c r="X1" t="s">
         <v>462</v>
       </c>
-      <c r="Y1" t="s">
-        <v>211</v>
+      <c r="Y1" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="Z1" t="s">
         <v>211</v>
@@ -2223,7 +2229,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2577,8 +2583,11 @@
       <c r="W10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="Y10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2598,7 +2607,7 @@
       <c r="L11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2626,7 +2635,7 @@
       <c r="L12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2649,7 +2658,7 @@
       <c r="L13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2672,7 +2681,7 @@
       <c r="L14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2762,7 +2771,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2807,8 +2816,11 @@
       <c r="V17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2889,7 +2901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2922,8 +2934,11 @@
       <c r="V20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2963,7 +2978,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3018,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -3054,7 +3069,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -3088,7 +3103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -3127,7 +3142,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -3164,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3187,7 +3202,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3235,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -3272,7 +3287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3303,7 +3318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3351,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -3396,7 +3411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -3439,7 +3454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3477,7 +3492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -3523,7 +3538,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3546,7 +3561,7 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -3578,7 +3593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3613,7 +3628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3645,7 +3660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
@@ -3689,8 +3704,11 @@
       <c r="U40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="Y40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3740,8 +3758,11 @@
       <c r="U41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="Y41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>144</v>
       </c>
@@ -3789,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -3818,7 +3839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>171</v>
       </c>
@@ -3869,7 +3890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3917,7 +3938,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3953,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -3995,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
@@ -4045,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
@@ -4084,7 +4105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4122,8 +4143,11 @@
       <c r="U50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
@@ -4173,7 +4197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>23</v>
       </c>
@@ -4220,7 +4244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
@@ -4264,7 +4288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -4296,7 +4320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>41</v>
       </c>
@@ -4335,7 +4359,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -4358,8 +4382,11 @@
       <c r="W56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -4386,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -4410,7 +4437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -4431,7 +4458,7 @@
       </c>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -4452,7 +4479,7 @@
       </c>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4479,7 +4506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
@@ -4526,7 +4553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4571,7 +4598,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4613,7 +4640,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -4650,7 +4677,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -4692,7 +4719,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -4732,7 +4759,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -4769,7 +4796,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4806,7 +4833,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4846,7 +4873,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -4888,7 +4915,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4925,7 +4952,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -4962,7 +4989,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -4993,7 +5020,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -5033,7 +5060,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -5078,7 +5105,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -5115,7 +5142,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -5151,7 +5178,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -5184,7 +5211,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -5220,7 +5247,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -5259,7 +5286,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -5298,7 +5325,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -5336,7 +5363,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>162</v>
       </c>
@@ -5374,7 +5401,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -5412,7 +5439,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>61</v>
       </c>
@@ -5458,7 +5485,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -5501,7 +5528,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -5544,7 +5571,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -5580,7 +5607,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -5619,7 +5646,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -5660,7 +5687,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -5701,7 +5728,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -5742,7 +5769,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -5786,7 +5813,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5819,7 +5846,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -5858,7 +5885,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -5899,7 +5926,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -5940,7 +5967,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -5981,7 +6008,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -6017,7 +6044,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>76</v>
       </c>
@@ -6058,7 +6085,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -6096,7 +6123,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -6137,7 +6164,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -6175,7 +6202,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>23</v>
       </c>
@@ -6214,7 +6241,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
@@ -6253,7 +6280,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>43</v>
       </c>
@@ -6296,7 +6323,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>43</v>
       </c>
@@ -6339,7 +6366,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>43</v>
       </c>
@@ -6379,7 +6406,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>142</v>
       </c>
@@ -6430,7 +6457,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>142</v>
       </c>
@@ -6471,7 +6498,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>57</v>
       </c>
@@ -6519,7 +6546,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>61</v>
       </c>
@@ -6564,7 +6591,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>61</v>
       </c>
@@ -6602,7 +6629,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>61</v>
       </c>
@@ -6641,7 +6668,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>61</v>
       </c>
@@ -6694,7 +6721,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>170</v>
       </c>
@@ -6735,7 +6762,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>78</v>
       </c>
@@ -6774,7 +6801,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>70</v>
       </c>
@@ -6810,7 +6837,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>67</v>
       </c>
@@ -6852,7 +6879,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>177</v>
       </c>
@@ -6891,7 +6918,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>177</v>
       </c>
@@ -6927,7 +6954,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>73</v>
       </c>
@@ -6963,7 +6990,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>73</v>
       </c>
@@ -7004,7 +7031,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>73</v>
       </c>
@@ -7048,7 +7075,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>195</v>
       </c>
@@ -7087,7 +7114,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>66</v>
       </c>
@@ -7126,7 +7153,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>195</v>
       </c>
@@ -7162,7 +7189,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>78</v>
       </c>
@@ -7208,7 +7235,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>70</v>
       </c>
@@ -7253,7 +7280,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>67</v>
       </c>
@@ -7299,7 +7326,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>73</v>
       </c>
@@ -7339,7 +7366,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>83</v>
       </c>
@@ -7387,7 +7414,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>66</v>
       </c>
@@ -7436,7 +7463,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>14</v>
       </c>
@@ -7483,7 +7510,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>23</v>
       </c>
@@ -7527,7 +7554,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>14</v>
       </c>
@@ -7577,7 +7604,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>21</v>
       </c>
@@ -7618,7 +7645,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>39</v>
       </c>
@@ -7659,7 +7686,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>49</v>
       </c>
@@ -7700,7 +7727,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>43</v>
       </c>
@@ -7732,7 +7759,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>43</v>
       </c>
@@ -7779,7 +7806,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>45</v>
       </c>
@@ -7829,7 +7856,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>43</v>
       </c>
@@ -7870,7 +7897,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>43</v>
       </c>
@@ -7914,7 +7941,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -7952,7 +7979,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -7993,7 +8020,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -8028,7 +8055,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -8069,11 +8096,6 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup scale="72" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8088,7 +8110,7 @@
       <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.83203125" hidden="1" customWidth="1"/>
@@ -8096,7 +8118,7 @@
     <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8149,7 +8171,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8188,7 +8210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8221,7 +8243,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -8246,7 +8268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -8279,7 +8301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8304,7 +8326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -8326,7 +8348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -8353,7 +8375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -8384,7 +8406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -8412,7 +8434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -8437,7 +8459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -8462,7 +8484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -8484,7 +8506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -8497,7 +8519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -8524,7 +8546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -8541,7 +8563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -8558,7 +8580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -8580,7 +8602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -8611,7 +8633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -8636,7 +8658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -8656,7 +8678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -8676,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -8720,7 +8742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>159</v>
       </c>
@@ -8739,7 +8761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -8770,7 +8792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>95</v>
       </c>
@@ -8804,7 +8826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -8821,7 +8843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -8837,7 +8859,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -8862,7 +8884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -8884,7 +8906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -8917,7 +8939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>121</v>
       </c>
@@ -8939,7 +8961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -8966,7 +8988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
@@ -8991,7 +9013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -9005,7 +9027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -9041,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>113</v>
       </c>
@@ -9060,7 +9082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -9076,7 +9098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>110</v>
       </c>
@@ -9109,7 +9131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>123</v>
       </c>
@@ -9142,7 +9164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -9173,7 +9195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -9193,7 +9215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>137</v>
       </c>
@@ -9227,7 +9249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -9244,7 +9266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -9264,7 +9286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -9287,7 +9309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -9304,7 +9326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>150</v>
       </c>
@@ -9337,7 +9359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
@@ -9376,7 +9398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>157</v>
       </c>
@@ -9412,7 +9434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -9429,7 +9451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>172</v>
       </c>
@@ -9468,7 +9490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
@@ -9504,7 +9526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -9525,7 +9547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -9546,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -9567,7 +9589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>20</v>
       </c>
@@ -9596,7 +9618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
@@ -9617,7 +9639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
@@ -9638,7 +9660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>15</v>
       </c>
@@ -9670,7 +9692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
@@ -9699,7 +9721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -9728,7 +9750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
@@ -9760,7 +9782,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -9786,7 +9808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>27</v>
       </c>
@@ -9815,7 +9837,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -9835,7 +9857,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -9864,7 +9886,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>42</v>
       </c>
@@ -9888,7 +9910,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -9900,7 +9922,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -9912,7 +9934,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -9921,7 +9943,7 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -9930,7 +9952,7 @@
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -9939,7 +9961,7 @@
       </c>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -9957,7 +9979,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
@@ -9995,7 +10017,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -10025,7 +10047,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -10053,7 +10075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -10083,7 +10105,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -10108,7 +10130,7 @@
       </c>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -10133,7 +10155,7 @@
       </c>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -10166,7 +10188,7 @@
       </c>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>147</v>
       </c>
@@ -10191,7 +10213,7 @@
       </c>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -10215,7 +10237,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -10236,7 +10258,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>138</v>
       </c>
@@ -10260,7 +10282,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -10287,7 +10309,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -10311,7 +10333,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -10337,7 +10359,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -10363,7 +10385,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -10389,7 +10411,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -10423,7 +10445,7 @@
       </c>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -10451,7 +10473,7 @@
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -10482,7 +10504,7 @@
       </c>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -10506,7 +10528,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -10530,7 +10552,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -10559,7 +10581,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -10588,7 +10610,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -10614,7 +10636,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -10643,7 +10665,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -10664,7 +10686,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -10691,7 +10713,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>75</v>
       </c>
@@ -10717,7 +10739,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -10743,7 +10765,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -10769,7 +10791,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -10793,7 +10815,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>77</v>
       </c>
@@ -10819,7 +10841,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>173</v>
       </c>
@@ -10845,7 +10867,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>176</v>
       </c>
@@ -10874,7 +10896,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -10900,7 +10922,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>117</v>
       </c>
@@ -10927,7 +10949,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>118</v>
       </c>
@@ -10954,7 +10976,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>151</v>
       </c>
@@ -10988,7 +11010,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>154</v>
       </c>
@@ -11025,7 +11047,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>156</v>
       </c>
@@ -11053,7 +11075,7 @@
       </c>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>153</v>
       </c>
@@ -11092,7 +11114,7 @@
       </c>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>155</v>
       </c>
@@ -11121,7 +11143,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>166</v>
       </c>
@@ -11157,7 +11179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>168</v>
       </c>
@@ -11183,7 +11205,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>65</v>
       </c>
@@ -11207,7 +11229,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>62</v>
       </c>
@@ -11245,7 +11267,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>169</v>
       </c>
@@ -11274,7 +11296,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>193</v>
       </c>
@@ -11301,7 +11323,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>190</v>
       </c>
@@ -11325,7 +11347,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>68</v>
       </c>
@@ -11352,7 +11374,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -11379,7 +11401,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>198</v>
       </c>
@@ -11403,7 +11425,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>192</v>
       </c>
@@ -11427,7 +11449,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>74</v>
       </c>
@@ -11453,7 +11475,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>82</v>
       </c>
@@ -11482,7 +11504,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>196</v>
       </c>
@@ -11509,7 +11531,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>72</v>
       </c>
@@ -11533,7 +11555,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>197</v>
       </c>
@@ -11557,7 +11579,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>189</v>
       </c>
@@ -11591,7 +11613,7 @@
       </c>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>194</v>
       </c>
@@ -11624,7 +11646,7 @@
       </c>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>175</v>
       </c>
@@ -11664,7 +11686,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>186</v>
       </c>
@@ -11698,7 +11720,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>84</v>
       </c>
@@ -11737,7 +11759,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>69</v>
       </c>
@@ -11777,7 +11799,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>22</v>
       </c>
@@ -11803,7 +11825,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>50</v>
       </c>
@@ -11835,7 +11857,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>44</v>
       </c>
@@ -11852,7 +11874,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>54</v>
       </c>
@@ -11884,7 +11906,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>46</v>
       </c>
@@ -11919,7 +11941,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>47</v>
       </c>
@@ -11945,7 +11967,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>48</v>
       </c>
@@ -11974,7 +11996,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>174</v>
       </c>
@@ -12000,7 +12022,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>182</v>
       </c>
@@ -12029,7 +12051,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>187</v>
       </c>
@@ -12052,7 +12074,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>188</v>
       </c>
@@ -12077,11 +12099,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12089,17 +12106,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -12146,7 +12163,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -12169,7 +12186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -12192,7 +12209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -12215,7 +12232,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -12238,7 +12255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -12261,7 +12278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -12284,7 +12301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -12307,7 +12324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -12330,7 +12347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -12353,7 +12370,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -12376,7 +12393,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -12399,7 +12416,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -12422,7 +12439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -12445,7 +12462,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -12468,7 +12485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -12491,7 +12508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -12514,7 +12531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -12558,7 +12575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -12581,7 +12598,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -12604,7 +12621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -12627,7 +12644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -12653,7 +12670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -12679,7 +12696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -12705,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -12731,7 +12748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -12757,7 +12774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -12783,7 +12800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -12809,7 +12826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -12835,7 +12852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -12861,7 +12878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12887,7 +12904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -12913,7 +12930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -12939,7 +12956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -12965,7 +12982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -12991,7 +13008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -13038,7 +13055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -13064,7 +13081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -13111,7 +13128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -13137,7 +13154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -13163,7 +13180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -13189,7 +13206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -13215,7 +13232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -13262,7 +13279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -13288,7 +13305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -13314,7 +13331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -13340,7 +13357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -13366,7 +13383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -13392,7 +13409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -13418,7 +13435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -13444,7 +13461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -13470,7 +13487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -13496,7 +13513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -13522,7 +13539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -13548,7 +13565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -13574,7 +13591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -13600,7 +13617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -13626,7 +13643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -13652,7 +13669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -13678,7 +13695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -13704,7 +13721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -13730,7 +13747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -13756,7 +13773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -13782,7 +13799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -13808,7 +13825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -13834,7 +13851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -13860,7 +13877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -13886,7 +13903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -13912,7 +13929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -13938,7 +13955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -13969,6 +13986,12 @@
       <c r="J70" s="3">
         <v>0.40069444444444446</v>
       </c>
+      <c r="K70" t="s">
+        <v>466</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="M70" t="s">
         <v>5</v>
       </c>
@@ -13976,7 +13999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -14002,7 +14025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -14028,7 +14051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -14054,7 +14077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -14079,8 +14102,26 @@
       <c r="H74" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="I74" t="s">
+        <v>463</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="K74" t="s">
+        <v>466</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="M74" t="s">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -14106,7 +14147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>134</v>
       </c>
@@ -14132,7 +14173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -14158,7 +14199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -14184,7 +14225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -14210,7 +14251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -14220,14 +14261,23 @@
       <c r="C80" s="3">
         <v>0.40069444444444446</v>
       </c>
+      <c r="D80" t="s">
+        <v>466</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F80">
         <v>12</v>
       </c>
       <c r="G80" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -14237,14 +14287,23 @@
       <c r="C81" s="3">
         <v>0.40069444444444446</v>
       </c>
+      <c r="D81" t="s">
+        <v>466</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F81">
         <v>12</v>
       </c>
       <c r="G81" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>56</v>
       </c>
@@ -14254,11 +14313,20 @@
       <c r="C82" s="3">
         <v>0.40069444444444446</v>
       </c>
+      <c r="D82" t="s">
+        <v>466</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F82">
         <v>11</v>
       </c>
       <c r="G82" t="s">
         <v>5</v>
+      </c>
+      <c r="H82" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -14269,11 +14337,6 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14285,9 +14348,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -14307,7 +14370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -14327,7 +14390,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -14347,7 +14410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -14367,7 +14430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -14387,7 +14450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -14407,7 +14470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -14427,7 +14490,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -14450,11 +14513,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14469,7 +14527,7 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
@@ -14477,7 +14535,7 @@
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -14518,7 +14576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -14561,7 +14619,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -14604,7 +14662,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -14647,7 +14705,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -14690,7 +14748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -14733,7 +14791,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -14776,7 +14834,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -14819,7 +14877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14862,7 +14920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -14905,7 +14963,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -14948,7 +15006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -14988,7 +15046,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -15028,7 +15086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -15068,7 +15126,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -15108,7 +15166,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -15148,7 +15206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -15188,7 +15246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -15228,7 +15286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -15268,7 +15326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -15308,7 +15366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -15348,7 +15406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -15381,7 +15439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -15414,7 +15472,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -15447,7 +15505,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -15480,7 +15538,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -15513,7 +15571,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -15546,7 +15604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -15579,7 +15637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -15612,7 +15670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -15645,7 +15703,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -15678,7 +15736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -15711,7 +15769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -15744,7 +15802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -15777,7 +15835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -15810,7 +15868,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -15843,7 +15901,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -15876,7 +15934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -15909,7 +15967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -15942,7 +16000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -15975,7 +16033,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -16008,7 +16066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -16041,7 +16099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -16074,7 +16132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -16107,7 +16165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16140,7 +16198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -16170,7 +16228,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -16200,7 +16258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -16230,7 +16288,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -16260,7 +16318,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -16290,7 +16348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>199</v>
       </c>
@@ -16320,7 +16378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -16350,7 +16408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -16380,7 +16438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -16410,7 +16468,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -16440,7 +16498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -16470,7 +16528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -16500,62 +16558,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16" hidden="1">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16" hidden="1">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16" hidden="1">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16" hidden="1">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" hidden="1">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16" hidden="1">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" hidden="1">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="16" hidden="1">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="16" hidden="1">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="16" hidden="1">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="16" hidden="1">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="16" hidden="1">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -16565,11 +16623,6 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16584,13 +16637,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -16622,7 +16675,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -16654,7 +16707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -16686,7 +16739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -16712,7 +16765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -16744,7 +16797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -16755,7 +16808,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>293</v>
       </c>
@@ -16787,7 +16840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -16819,7 +16872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -16845,7 +16898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -16877,7 +16930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -16909,7 +16962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -16935,7 +16988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -16967,7 +17020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -16999,7 +17052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -17025,7 +17078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -17036,7 +17089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -17068,7 +17121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -17094,7 +17147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -17105,7 +17158,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -17116,7 +17169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>312</v>
       </c>
@@ -17127,7 +17180,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -17138,7 +17191,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>312</v>
       </c>
@@ -17149,7 +17202,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -17160,7 +17213,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -17171,7 +17224,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -17182,7 +17235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -17193,7 +17246,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -17204,7 +17257,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -17215,7 +17268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -17226,7 +17279,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -17237,7 +17290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -17248,7 +17301,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>313</v>
       </c>
@@ -17259,7 +17312,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -17270,7 +17323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>328</v>
       </c>
@@ -17281,7 +17334,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -17292,7 +17345,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>328</v>
       </c>
@@ -17303,7 +17356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -17314,7 +17367,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -17325,7 +17378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -17336,7 +17389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>328</v>
       </c>
@@ -17347,7 +17400,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -17358,7 +17411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -17369,7 +17422,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -17380,7 +17433,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -17391,7 +17444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -17402,7 +17455,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -17413,7 +17466,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -17424,7 +17477,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -17440,11 +17493,6 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17456,9 +17504,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -17472,7 +17520,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -17486,7 +17534,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -17500,7 +17548,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -17514,7 +17562,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -17528,7 +17576,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -17542,7 +17590,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -17556,7 +17604,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -17570,7 +17618,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -17586,11 +17634,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17598,13 +17641,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -17648,7 +17691,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
@@ -17692,7 +17735,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42777</v>
       </c>
@@ -17736,7 +17779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42780</v>
       </c>
@@ -17762,7 +17805,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42793</v>
       </c>
@@ -17788,10 +17831,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/freezingexp.xlsx
+++ b/data/freezingexp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1200" windowWidth="42440" windowHeight="21640" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="3780" yWindow="1200" windowWidth="42440" windowHeight="21640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="470">
   <si>
     <t>OLD</t>
   </si>
@@ -1430,9 +1430,6 @@
     <t>BBCH 10.4</t>
   </si>
   <si>
-    <t>07.APR</t>
-  </si>
-  <si>
     <t>Data can be found on FRZ sheet</t>
   </si>
   <si>
@@ -1440,6 +1437,18 @@
   </si>
   <si>
     <t>11.APR</t>
+  </si>
+  <si>
+    <t>10.APR</t>
+  </si>
+  <si>
+    <t>17.APR</t>
+  </si>
+  <si>
+    <t>BBCH 17.4</t>
+  </si>
+  <si>
+    <t>BBCH 15.4</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2122,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -2127,14 +2136,14 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA149"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="Y57" sqref="Y57"/>
+      <selection pane="bottomRight" activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2146,7 +2155,7 @@
     <col min="14" max="22" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2220,16 +2229,19 @@
         <v>462</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Z1" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB1" t="s">
         <v>211</v>
       </c>
-      <c r="AA1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +2332,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2484,7 +2496,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2530,7 +2542,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2586,8 +2598,11 @@
       <c r="Y10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2606,8 +2621,14 @@
       <c r="I11" s="7"/>
       <c r="L11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z11">
+        <v>9</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2635,7 +2656,7 @@
       <c r="L12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2658,7 +2679,7 @@
       <c r="L13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2681,7 +2702,7 @@
       <c r="L14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2740,7 +2761,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2771,7 +2792,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2820,7 +2841,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2890,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2900,8 +2921,11 @@
       <c r="V19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2938,7 +2962,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2978,7 +3002,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3018,7 +3042,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -3069,7 +3093,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -3103,7 +3127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -3142,7 +3166,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -3179,7 +3203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3202,7 +3226,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3250,7 +3274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -3287,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3318,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3366,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -3411,7 +3435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -3454,7 +3478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3492,7 +3516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -3538,7 +3562,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3561,7 +3585,7 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -3592,8 +3616,11 @@
       <c r="V37">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3628,7 +3655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3660,7 +3687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
@@ -3708,7 +3735,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3762,7 +3789,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>144</v>
       </c>
@@ -3810,7 +3837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -3839,7 +3866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>171</v>
       </c>
@@ -3890,7 +3917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3938,7 +3965,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3973,8 +4000,11 @@
       <c r="U46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -4015,8 +4045,11 @@
       <c r="U47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
@@ -4064,6 +4097,9 @@
       </c>
       <c r="U48">
         <v>3</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
@@ -12104,10 +12140,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13981,13 +14017,13 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="J70" s="3">
         <v>0.40069444444444446</v>
       </c>
       <c r="K70" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L70" s="3">
         <v>0.43333333333333335</v>
@@ -14103,13 +14139,13 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="J74" s="3">
         <v>0.40069444444444446</v>
       </c>
       <c r="K74" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L74" s="3">
         <v>0.43333333333333335</v>
@@ -14256,13 +14292,13 @@
         <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C80" s="3">
         <v>0.40069444444444446</v>
       </c>
       <c r="D80" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E80" s="3">
         <v>0.43333333333333335</v>
@@ -14282,13 +14318,13 @@
         <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C81" s="3">
         <v>0.40069444444444446</v>
       </c>
       <c r="D81" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E81" s="3">
         <v>0.43333333333333335</v>
@@ -14308,13 +14344,13 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C82" s="3">
         <v>0.40069444444444446</v>
       </c>
       <c r="D82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E82" s="3">
         <v>0.43333333333333335</v>
@@ -14327,6 +14363,40 @@
       </c>
       <c r="H82" s="8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" t="s">
+        <v>467</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F83">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
+        <v>467</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F84">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/freezingexp.xlsx
+++ b/data/freezingexp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="472">
   <si>
     <t>OLD</t>
   </si>
@@ -1449,6 +1449,12 @@
   </si>
   <si>
     <t>BBCH 15.4</t>
+  </si>
+  <si>
+    <t>BBCH 18.4</t>
+  </si>
+  <si>
+    <t>BBCH 24.4</t>
   </si>
 </sst>
 </file>
@@ -2136,14 +2142,14 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="AA49" sqref="AA49"/>
+      <selection pane="bottomRight" activeCell="AC59" sqref="AC59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2155,7 +2161,7 @@
     <col min="14" max="22" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2238,10 +2244,13 @@
         <v>468</v>
       </c>
       <c r="AB1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2292,7 +2301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2376,8 +2385,11 @@
       <c r="V4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2420,7 +2432,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2465,11 @@
       <c r="V6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2496,7 +2511,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2542,7 +2557,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2573,7 +2588,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2602,7 +2617,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2628,7 +2643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2656,7 +2671,7 @@
       <c r="L12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2679,7 +2694,7 @@
       <c r="L13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2702,7 +2717,7 @@
       <c r="L14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2761,7 +2776,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2792,7 +2807,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2841,7 +2856,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -2890,7 +2905,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2925,7 +2940,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2962,7 +2977,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -3002,7 +3017,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -3093,7 +3108,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -3126,8 +3141,11 @@
       <c r="U24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -3166,7 +3184,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -3202,8 +3220,11 @@
       <c r="U26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3226,7 +3247,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3274,7 +3295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -3310,8 +3331,11 @@
       <c r="U29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3341,8 +3365,11 @@
       <c r="U30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3390,7 +3417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -3435,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -3477,8 +3504,11 @@
       <c r="U33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3515,8 +3545,11 @@
       <c r="W34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -3562,7 +3595,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3585,7 +3618,7 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -3620,7 +3653,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3655,7 +3688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3687,7 +3720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
@@ -3735,7 +3768,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>144</v>
       </c>
@@ -3789,7 +3822,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>144</v>
       </c>
@@ -3837,7 +3870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -3865,8 +3898,11 @@
       <c r="V43">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>171</v>
       </c>
@@ -3917,7 +3953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3965,7 +4001,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4004,7 +4040,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -4049,7 +4085,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
@@ -4102,7 +4138,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
@@ -4141,7 +4177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4182,8 +4218,11 @@
       <c r="Y50" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
@@ -4233,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>23</v>
       </c>
@@ -4279,8 +4318,11 @@
       <c r="U52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
@@ -4324,7 +4366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -4356,7 +4398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>41</v>
       </c>
@@ -4395,7 +4437,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -4422,7 +4464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -4449,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -4472,8 +4514,11 @@
       <c r="V58">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -4494,7 +4539,7 @@
       </c>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -4515,7 +4560,7 @@
       </c>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4542,7 +4587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
@@ -4589,7 +4634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4634,7 +4679,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>

--- a/data/freezingexp.xlsx
+++ b/data/freezingexp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1200" windowWidth="42440" windowHeight="21640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3780" yWindow="1200" windowWidth="42440" windowHeight="21640" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="473">
   <si>
     <t>OLD</t>
   </si>
@@ -1455,6 +1455,9 @@
   </si>
   <si>
     <t>BBCH 24.4</t>
+  </si>
+  <si>
+    <t>18.APR</t>
   </si>
 </sst>
 </file>
@@ -2144,12 +2147,12 @@
   </sheetPr>
   <dimension ref="A1:AC149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E97" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="AC59" sqref="AC59"/>
+      <selection pane="bottomRight" activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3617,6 +3620,9 @@
       <c r="I36" s="7"/>
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
+      <c r="X36">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -12187,8 +12193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14420,11 +14426,20 @@
       <c r="C83" s="3">
         <v>0.3576388888888889</v>
       </c>
+      <c r="D83" t="s">
+        <v>472</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.3298611111111111</v>
+      </c>
       <c r="F83">
         <v>13</v>
       </c>
       <c r="G83" t="s">
         <v>91</v>
+      </c>
+      <c r="H83" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -14437,11 +14452,20 @@
       <c r="C84" s="3">
         <v>0.3576388888888889</v>
       </c>
+      <c r="D84" t="s">
+        <v>472</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.3298611111111111</v>
+      </c>
       <c r="F84">
         <v>13</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
+      </c>
+      <c r="H84" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
